--- a/data/ryp_student_database_200hr.xlsx
+++ b/data/ryp_student_database_200hr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA87"/>
+  <dimension ref="A1:AA100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,12 +704,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Julie Hollard</t>
+          <t>Alina Iuga</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>hollardjulie@gmail.com</t>
+          <t>alinaiuga2@gmail.com</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -737,7 +737,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Direct (ex student)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -763,28 +763,24 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>26-Oct-2024</t>
-        </is>
-      </c>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2350</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>Stripe</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Originally booked in 2023</t>
+        </is>
+      </c>
       <c r="Z3" t="inlineStr">
         <is>
           <t>1</t>
@@ -809,12 +805,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Alina Iuga</t>
+          <t>Sarah Lober</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -824,10 +820,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>alinaiuga2@gmail.com</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
+          <t>lober.sarah@gmx.de</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>+491715460531</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -847,14 +847,10 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Direct (ex student)</t>
-        </is>
-      </c>
+          <t>Direct - paid w/t assist</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -863,29 +859,33 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>2750</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>28-Oct-2024</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr"/>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>Originally booked in 2023</t>
-        </is>
-      </c>
+      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
           <t>1</t>
@@ -910,12 +910,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sarah Lober</t>
+          <t>Maria Stadler</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -923,20 +923,12 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>lober.sarah@gmx.de</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>+491715460531</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -952,10 +944,14 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -985,10 +981,14 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr"/>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Maria Stadler</t>
+          <t>Maryam Kargar</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1028,12 +1028,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>maryamkargar23@gmail.com</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1075,7 +1083,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>28-Oct-2024</t>
+          <t>06-Nov-2024</t>
         </is>
       </c>
       <c r="T6" t="inlineStr"/>
@@ -1086,7 +1094,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Doku</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1120,12 +1128,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Maryam Kargar</t>
+          <t>Charlotte Elway</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1135,15 +1143,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>maryamkargar23@gmail.com</t>
+          <t>cj.elway@icloud.com</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -1183,23 +1187,23 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>06-Nov-2024</t>
+          <t>07-Nov-2024</t>
         </is>
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>Doku</t>
+          <t>Bank tf</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1233,12 +1237,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Charlotte Elway</t>
+          <t>Twinsa Patel</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1248,7 +1252,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>cj.elway@icloud.com</t>
+          <t>Twinsapatel@yahoo.com</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -1274,11 +1278,7 @@
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1292,30 +1292,30 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>08-Nov-2024</t>
+        </is>
+      </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>Bank tf</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>Bank transfer made</t>
+          <t>Vegetarian Diet</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1342,12 +1342,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Twinsa Patel</t>
+          <t>Thais Strbac</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1355,16 +1355,12 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Twinsapatel@yahoo.com</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1383,7 +1379,11 @@
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1411,18 +1411,10 @@
           <t>1700</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+      <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>Vegetarian Diet</t>
-        </is>
-      </c>
+      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
           <t>1</t>
@@ -1447,12 +1439,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Thais Strbac</t>
+          <t>DS group 1 (NZ)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1507,7 +1499,7 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>08-Nov-2024</t>
+          <t>10-Nov</t>
         </is>
       </c>
       <c r="T10" t="inlineStr"/>
@@ -1544,12 +1536,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DS group 1 (NZ)</t>
+          <t>DS group 2 (NZ)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1641,12 +1633,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DS group 2 (NZ)</t>
+          <t>DS group 3 (NZ)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1738,12 +1730,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DS group 3 (NZ)</t>
+          <t>DS group 4 (NZ)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1835,12 +1827,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DS group 4 (NZ)</t>
+          <t>Yana Stefanova</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1848,12 +1840,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>yanastefanova5@gmail.com</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1890,24 +1886,28 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>10-Nov</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>Bank trf made // plans to book 1 extra night on Feb 16 (availabilty confirmed) // currently treating a hip discomfort, so far doctors do not see any major problem.</t>
+        </is>
+      </c>
       <c r="Z14" t="inlineStr">
         <is>
           <t>1</t>
@@ -1932,12 +1932,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Yana Stefanova</t>
+          <t>Lydia Harris</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1947,11 +1947,15 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>yanastefanova5@gmail.com</t>
+          <t>lydiaharris4554@outlook.com</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -1970,14 +1974,10 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
-        </is>
-      </c>
+          <t>Direct - paid w/t assist</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -1991,28 +1991,28 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr"/>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>11-Nov-2024</t>
+        </is>
+      </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>Hold until 13 Nov. currently treating a hip discomfort, the root cause of which is yet to be identified, so far doctors do not see any major problem.</t>
-        </is>
-      </c>
+      <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
           <t>1</t>
@@ -2037,12 +2037,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Lydia Harris</t>
+          <t>Mara Mccurdy</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2052,15 +2052,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>lydiaharris4554@outlook.com</t>
+          <t>maramccurdy22@gmail.com</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -2079,10 +2075,14 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2096,28 +2096,32 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>11-Nov-2024</t>
+          <t>16-Nov-2024</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Xendit</t>
+          <t>DOKU</t>
         </is>
       </c>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gluten free (celiac) // She's currently healing from ligament injury on her left ankle and right knee, but she confirmed that it won't affect the training including the hike</t>
+        </is>
+      </c>
       <c r="Z16" t="inlineStr">
         <is>
           <t>1</t>
@@ -2142,12 +2146,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Mara Mccurdy</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2157,7 +2161,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>maramccurdy22@gmail.com</t>
+          <t>hillchelsea1@gmail.com</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -2180,7 +2184,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -2201,24 +2205,32 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>18-Nov-2024</t>
+        </is>
+      </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>2100</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>Hold Nov 15 // Gluten free (celiac) // She's currently healing from ligament injury on her left ankle and right knee, but she confirmed that it won't affect the training including the hike</t>
-        </is>
-      </c>
+      <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
           <t>1</t>
@@ -2243,12 +2255,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Dani Bass</t>
+          <t>Julie Hollard</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2258,15 +2270,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Dani.bass@btinternet.com</t>
+          <t>hollardjulie@gmail.com</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -2280,7 +2288,7 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -2306,28 +2314,28 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>26-Oct-2024</t>
+        </is>
+      </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2750</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Stripe</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>Bank transfer made</t>
-        </is>
-      </c>
+      <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
           <t>1</t>
@@ -2352,12 +2360,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Vyla Carter</t>
+          <t>Dani Bass</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2365,17 +2373,25 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Dani.bass@btinternet.com</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -2402,31 +2418,31 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>14-Oct-2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>Additional 2 days stay - 24/25 Jan @ $90 per day. Will pay with the balance</t>
+          <t>Had an issue Bank transfer.. Will make a new payment (17 Nov)</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2570,25 +2586,37 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Stratos - YTC</t>
+          <t>Katrina Di</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Katrinadin@gmail.com</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>+15202484721</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2625,24 +2653,32 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>2746.24</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>13-Oct-2024</t>
+          <t>14-Oct-2024</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>additional night on the 16th of February</t>
+        </is>
+      </c>
       <c r="Z21" t="inlineStr">
         <is>
           <t>1</t>
@@ -2901,12 +2937,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Katrina Di</t>
+          <t>Vyla Carter</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2914,29 +2950,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Katrinadin@gmail.com</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>+15202484721</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -2963,12 +2987,12 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>2746.24</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -2979,19 +3003,15 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>additional night on the 16th of February</t>
+          <t>Additional 2 days stay - 24/25 Jan @ $90 per day. Will pay with the balance</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -4302,34 +4322,30 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Brooke O'Connor</t>
+          <t xml:space="preserve">Efstratios Marougkas (Stratos) </t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>bgoc2013@icloud.com</t>
-        </is>
-      </c>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -4356,7 +4372,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -4366,25 +4382,17 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>17-Oct-2024</t>
+          <t>13-Oct-2024</t>
         </is>
       </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>Bank transfer</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
@@ -4401,39 +4409,35 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>February 24, 2025</t>
+          <t>January 26, 2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>March 17, 2025</t>
+          <t>February 16, 2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Gabriel Campaner Bascuñana</t>
+          <t>Brooke O'Connor</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>GabrielCampanerCoach@gmail.com // gcampaner_91@hotmail.com</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>3460387145</t>
-        </is>
-      </c>
+          <t>bgoc2013@icloud.com</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
@@ -4479,7 +4483,7 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>2 November 2024</t>
+          <t>17-Oct-2024</t>
         </is>
       </c>
       <c r="T38" t="inlineStr"/>
@@ -4490,20 +4494,24 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr"/>
+          <t>Bank transfer</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>February 24, 2025 to March 17, 2025</t>
+          <t>January 26, 2025 to February 16, 2025</t>
         </is>
       </c>
     </row>
@@ -4940,12 +4948,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Rubiya (REf DS)</t>
+          <t>Pauline Andre</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -4953,12 +4961,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>pauline.andre17490@gmail.com</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>+971 523243816</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -4967,7 +4983,11 @@
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M43" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -4994,17 +5014,29 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S43" t="inlineStr"/>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>9 November 2024</t>
+        </is>
+      </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
           <t>1700</t>
         </is>
       </c>
-      <c r="V43" t="inlineStr"/>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>I broke a rib at the end of September 2024, but it is currently healing and should be perfectly healed for the yoga program in February 2024.</t>
+        </is>
+      </c>
       <c r="Z43" t="inlineStr">
         <is>
           <t>2</t>
@@ -5029,12 +5061,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Diane</t>
+          <t>Petroni Issa (Ref DS)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -5042,20 +5074,12 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>daunasdiane@gmail.com</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>+971 557104954</t>
-        </is>
-      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -5091,29 +5115,17 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>11 November 2024</t>
-        </is>
-      </c>
+      <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
           <t>1700</t>
         </is>
       </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+      <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr">
-        <is>
-          <t>I have an old tendinitis in my left shoulder, though it hasn’t caused any issues for a few years now. Additionally, I manage a hormonal imbalance that requires me to rest adequately, but I am prepared for the retreat’s intensive schedule.</t>
-        </is>
-      </c>
+      <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
           <t>2</t>
@@ -5247,12 +5259,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Petroni Issa (Ref DS)</t>
+          <t>Thais</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -5425,91 +5437,55 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Nicole Dubinin</t>
+          <t>Monika &amp; Her Husband</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Nicoledubinin9@gmail.com</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
+          <t>monika.gruenenberg@web.de</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Monika will join the 200HR YTT and her husband will join Yoga &amp; Ayurveda Retreat as well if any spot available on this date</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>HOM</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Twin share</t>
-        </is>
-      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>16 October 2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr">
-        <is>
-          <t>Nicoledubinin9@gmail.com</t>
-        </is>
-      </c>
+      <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
           <t>2</t>
@@ -5534,27 +5510,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Pauline Andre</t>
+          <t>Gabriel Campaner Bascuñana</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>pauline.andre17490@gmail.com</t>
+          <t>GabrielCampanerCoach@gmail.com // gcampaner_91@hotmail.com</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>+971 523243816</t>
+          <t>3460387145</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -5602,7 +5578,7 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>9 November 2024</t>
+          <t>2 November 2024</t>
         </is>
       </c>
       <c r="T49" t="inlineStr"/>
@@ -5618,11 +5594,7 @@
       </c>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr">
-        <is>
-          <t>I broke a rib at the end of September 2024, but it is currently healing and should be perfectly healed for the yoga program in February 2024.</t>
-        </is>
-      </c>
+      <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
           <t>2</t>
@@ -5647,12 +5619,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kristhianne Cid de León </t>
+          <t>Diane</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -5660,12 +5632,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>daunasdiane@gmail.com</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>+971 557104954</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -5674,11 +5654,7 @@
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -5686,7 +5662,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -5707,7 +5683,7 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>10-Jul-2024</t>
+          <t>11 November 2024</t>
         </is>
       </c>
       <c r="T50" t="inlineStr"/>
@@ -5716,16 +5692,16 @@
           <t>1700</t>
         </is>
       </c>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
-        </is>
-      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>Booked in Jul 2024 at previous fee. Due to injury changing to Feb 2024 with the new fee</t>
+          <t>I have an old tendinitis in my left shoulder, though it hasn’t caused any issues for a few years now. Additionally, I manage a hormonal imbalance that requires me to rest adequately, but I am prepared for the retreat’s intensive schedule.</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
@@ -5752,12 +5728,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Carly Murphy</t>
+          <t>Nicole Dubinin</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -5765,21 +5741,21 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Nicoledubinin9@gmail.com</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -5795,7 +5771,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -5806,7 +5782,7 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -5816,25 +5792,25 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>10-Aug-2024</t>
+          <t>16 October 2024</t>
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>Booking done in early Aug but updated the sheet late</t>
+          <t>Nicoledubinin9@gmail.com</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
@@ -5861,29 +5837,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Ben McDonald-Stuart</t>
+          <t>Jessica Eryeti Dy</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>jessicaedy.work@gmail.com</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -5892,7 +5868,11 @@
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M52" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -5900,7 +5880,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -5921,7 +5901,7 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>20-Sep</t>
+          <t>7-Sep-2024</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
@@ -5932,16 +5912,16 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Bank Transfer</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> jessicaedy.wok@gmail.com</t>
+        </is>
+      </c>
       <c r="Z52" t="inlineStr">
         <is>
           <t>2</t>
@@ -5966,12 +5946,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Ulrike Maier</t>
+          <t>Maren Refert</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -5981,7 +5961,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>maier.ulrike64@gmx.de</t>
+          <t>maren.refert@gmx.com</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -6004,12 +5984,12 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Instagram </t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -6025,32 +6005,28 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>399.31</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>21-Aug-2024</t>
+          <t>21 Sep 2024</t>
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>1700.69</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr">
-        <is>
-          <t>maier.ulrike64@gmx.de</t>
-        </is>
-      </c>
+      <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
           <t>2</t>
@@ -6075,12 +6051,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Anna Stubbs</t>
+          <t>Ulrike Maier</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -6088,21 +6064,21 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>maier.ulrike64@gmx.de</t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -6118,7 +6094,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t xml:space="preserve">Instagram </t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -6129,23 +6105,23 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>399.31</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>19-Aug-2024</t>
+          <t>21-Aug-2024</t>
         </is>
       </c>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700.69</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
@@ -6155,7 +6131,11 @@
       </c>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>maier.ulrike64@gmx.de</t>
+        </is>
+      </c>
       <c r="Z54" t="inlineStr">
         <is>
           <t>2</t>
@@ -6180,12 +6160,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Maren Refert</t>
+          <t>Anna Stubbs</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -6193,21 +6173,21 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>maren.refert@gmx.com</t>
-        </is>
-      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -6218,12 +6198,12 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -6234,7 +6214,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -6244,18 +6224,18 @@
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>21 Sep 2024</t>
+          <t>19-Aug-2024</t>
         </is>
       </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Xendit</t>
+          <t>PayPal</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
@@ -6285,12 +6265,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Sarah Rayment Davies</t>
+          <t>Kanan</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -6300,7 +6280,11 @@
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="I56" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -6308,7 +6292,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -6328,33 +6312,25 @@
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
@@ -6382,12 +6358,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Mahariana</t>
+          <t>Sarah Rayment Davies</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -6405,7 +6381,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -6432,7 +6408,7 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -6444,7 +6420,7 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>1572</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
@@ -6454,11 +6430,7 @@
       </c>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Already paid $400 to HOM but changed to Retreat and then further change to TTC in 2025 after multiple calls </t>
-        </is>
-      </c>
+      <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
           <t>2</t>
@@ -6483,12 +6455,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Kanan</t>
+          <t>Mahariana</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -6498,11 +6470,7 @@
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -6530,28 +6498,40 @@
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V58" t="inlineStr"/>
+          <t>1572</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Already paid $400 to HOM but changed to Retreat and then further change to TTC in 2025 after multiple calls </t>
+        </is>
+      </c>
       <c r="Z58" t="inlineStr">
         <is>
           <t>2</t>
@@ -6576,26 +6556,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Asaf kehati</t>
+          <t xml:space="preserve">Kristhianne Cid de León </t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -6606,11 +6582,7 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>No</t>
@@ -6644,7 +6616,7 @@
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>10-Sep</t>
+          <t>10-Jul-2024</t>
         </is>
       </c>
       <c r="T59" t="inlineStr"/>
@@ -6653,14 +6625,18 @@
           <t>1700</t>
         </is>
       </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+        </is>
+      </c>
       <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>Booked in Jul 2024 at previous fee. Due to injury changing to Feb 2024 with the new fee</t>
+        </is>
+      </c>
       <c r="Z59" t="inlineStr">
         <is>
           <t>2</t>
@@ -6685,17 +6661,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Jutta</t>
+          <t>Asaf kehati</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -6717,7 +6693,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -6751,7 +6727,11 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S60" t="inlineStr"/>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>10-Sep</t>
+        </is>
+      </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
@@ -6790,12 +6770,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Nathalia Ramirez</t>
+          <t>Jutta</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -6803,16 +6783,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>nathy924@hotmail.com</t>
-        </is>
-      </c>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -6822,7 +6802,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -6837,7 +6817,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -6856,11 +6836,7 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>28 September 2024</t>
-        </is>
-      </c>
+      <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
@@ -6869,20 +6845,12 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr">
-        <is>
-          <t>Husband &amp; Wife - sharing Private Room // Nat has mild pollen allergy, but taking medications and she will be fine</t>
-        </is>
-      </c>
+      <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
           <t>2</t>
@@ -6907,29 +6875,25 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Jonathan Saldarriaga</t>
+          <t>Nathalia Ramirez</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Jonathan0391@hotmail.com</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>+4917664828174</t>
-        </is>
-      </c>
+          <t>nathy924@hotmail.com</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
@@ -6943,7 +6907,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -6999,7 +6963,11 @@
         </is>
       </c>
       <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>Husband &amp; Wife - sharing Private Room // Nat has mild pollen allergy, but taking medications and she will be fine</t>
+        </is>
+      </c>
       <c r="Z62" t="inlineStr">
         <is>
           <t>2</t>
@@ -7024,25 +6992,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Jessica Eryeti Dy</t>
+          <t>Jonathan Saldarriaga</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>jessicaedy.work@gmail.com</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr"/>
+          <t>Jonathan0391@hotmail.com</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>+4917664828174</t>
+        </is>
+      </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
@@ -7054,7 +7026,11 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>No</t>
@@ -7088,7 +7064,7 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>7-Sep-2024</t>
+          <t>28 September 2024</t>
         </is>
       </c>
       <c r="T63" t="inlineStr"/>
@@ -7099,16 +7075,16 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
-        </is>
-      </c>
-      <c r="W63" t="inlineStr"/>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> jessicaedy.wok@gmail.com</t>
-        </is>
-      </c>
+      <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
           <t>2</t>
@@ -7123,32 +7099,36 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>March 21, 2025</t>
+          <t>February 24, 2025</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>April 11, 2025</t>
+          <t>March 17, 2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Sunita (DS Ref)</t>
+          <t>Ben McDonald-Stuart</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
       <c r="I64" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -7163,7 +7143,7 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -7172,7 +7152,11 @@
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q64" t="inlineStr">
         <is>
           <t>2100</t>
@@ -7185,7 +7169,7 @@
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>1-Sep</t>
+          <t>20-Sep</t>
         </is>
       </c>
       <c r="T64" t="inlineStr"/>
@@ -7194,40 +7178,48 @@
           <t>1700</t>
         </is>
       </c>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>March 21, 2025 to April 11, 2025</t>
+          <t>February 24, 2025 to March 17, 2025</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>March 21, 2025</t>
+          <t>February 24, 2025</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>April 11, 2025</t>
+          <t>March 17, 2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Jéssica Schleiermacher</t>
+          <t>Carly Murphy</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -7235,16 +7227,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>jessicasimiro@gmail.com</t>
-        </is>
-      </c>
+      <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -7253,7 +7245,11 @@
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M65" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -7261,7 +7257,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -7282,7 +7278,7 @@
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>24-Oct-2024</t>
+          <t>10-Aug-2024</t>
         </is>
       </c>
       <c r="T65" t="inlineStr"/>
@@ -7293,24 +7289,24 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W65" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>Booking done in early Aug but updated the sheet late</t>
+        </is>
+      </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>March 21, 2025 to April 11, 2025</t>
+          <t>February 24, 2025 to March 17, 2025</t>
         </is>
       </c>
     </row>
@@ -7327,34 +7323,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Tanya Mistry</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
+          <t>Bethany Bradbury</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Tanyamistry94@gmail.com // she cannot eat paneer // Moved from Jan</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>919820611611</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>bethanymbradbury@gmail.com</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -7369,7 +7353,7 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -7378,11 +7362,7 @@
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
           <t>2750</t>
@@ -7395,7 +7375,7 @@
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>31-Aug-2024</t>
+          <t>28-Oct-2024</t>
         </is>
       </c>
       <c r="T66" t="inlineStr"/>
@@ -7406,7 +7386,7 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Stripe</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
@@ -7414,11 +7394,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="X66" t="inlineStr">
-        <is>
-          <t>Vegan/Dairy free</t>
-        </is>
-      </c>
+      <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
@@ -7444,41 +7420,45 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Gwen Deitz</t>
+          <t>Ratnaben Parekh</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>gwendeitz3611@gmail.com</t>
-        </is>
-      </c>
+      <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Direct - paid w/t assist</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -7486,22 +7466,14 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>10-Oct-2024</t>
-        </is>
-      </c>
+      <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr"/>
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
@@ -7529,19 +7501,15 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Janiya Runaya (DS Ref)</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
+          <t>Sikka Ayama</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
@@ -7552,7 +7520,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
@@ -7564,14 +7532,14 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -7581,13 +7549,13 @@
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>28-Sep</t>
+          <t>17 Nov 2024</t>
         </is>
       </c>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V68" t="inlineStr"/>
@@ -7618,30 +7586,30 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Bethany Bradbury</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>bethanymbradbury@gmail.com</t>
-        </is>
-      </c>
+          <t>Dirukha Ayama</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -7660,7 +7628,7 @@
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -7670,25 +7638,17 @@
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>28-Oct-2024</t>
+          <t>17 Nov 2024</t>
         </is>
       </c>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>2350</t>
-        </is>
-      </c>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W69" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
@@ -7715,12 +7675,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Wahiba daughter-YB</t>
+          <t>Rukhsana Ayama</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -7738,7 +7698,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
@@ -7750,14 +7710,14 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -7767,13 +7727,13 @@
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>29-Aug</t>
+          <t>17 Nov 2024</t>
         </is>
       </c>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V70" t="inlineStr"/>
@@ -7804,12 +7764,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Rumera Ash-REF</t>
+          <t>Rubina Malik Ayama YTC</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -7839,7 +7799,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -7856,7 +7816,7 @@
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>12-Aug</t>
+          <t>17 Nov 2024</t>
         </is>
       </c>
       <c r="T71" t="inlineStr"/>
@@ -7893,17 +7853,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Ashok YTP</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -7916,19 +7876,11 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Twin share</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
           <t>Direct - paid w/t assist</t>
@@ -7936,14 +7888,14 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -7953,20 +7905,16 @@
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>9-Jul-2024</t>
+          <t>16 Nov 2024</t>
         </is>
       </c>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V72" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
@@ -7994,42 +7942,38 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Tamara Fenech</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr"/>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>tamara@cosiestudio.com</t>
+        </is>
+      </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Twin share</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
           <t>Direct - paid w/t assist</t>
@@ -8037,14 +7981,14 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -8054,21 +7998,25 @@
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>9-Jul-2024</t>
+          <t>15 Nov 2024</t>
         </is>
       </c>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W73" t="inlineStr"/>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
@@ -8095,18 +8043,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Monica Milillo</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr"/>
+          <t>Jéssica Schleiermacher</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>monicamilillo02@gmail.com</t>
+          <t>jessicasimiro@gmail.com</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -8125,12 +8077,20 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr"/>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
       <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q74" t="inlineStr">
         <is>
           <t>2750</t>
@@ -8143,7 +8103,7 @@
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>8-Sep-2024</t>
+          <t>24-Oct-2024</t>
         </is>
       </c>
       <c r="T74" t="inlineStr"/>
@@ -8157,7 +8117,11 @@
           <t>Xendit</t>
         </is>
       </c>
-      <c r="W74" t="inlineStr"/>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
@@ -8184,12 +8148,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Wahiba-YB</t>
+          <t>Tanya Mistry</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -8197,36 +8161,52 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Tanyamistry94@gmail.com // she cannot eat paneer // Moved from Jan</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>919820611611</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
@@ -8236,18 +8216,30 @@
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>29-Aug</t>
+          <t>31-Aug-2024</t>
         </is>
       </c>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr"/>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>Stripe</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>Vegan/Dairy free</t>
+        </is>
+      </c>
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
@@ -8263,32 +8255,28 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>April 19, 2025</t>
+          <t>March 21, 2025</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>April 11, 2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Ellie Walters</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
+          <t>Gwen Deitz</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>elliewalters98@gmail.com</t>
+          <t>gwendeitz3611@gmail.com</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
@@ -8305,22 +8293,10 @@
       </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>Direct - paid w/t assist</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
-        </is>
-      </c>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr">
         <is>
           <t>2100</t>
@@ -8333,7 +8309,7 @@
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>4-Sep-2024</t>
+          <t>10-Oct-2024</t>
         </is>
       </c>
       <c r="T76" t="inlineStr"/>
@@ -8347,47 +8323,39 @@
           <t>Xendit</t>
         </is>
       </c>
-      <c r="W76" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr">
-        <is>
-          <t>elliewalters98@gmail.com</t>
-        </is>
-      </c>
+      <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>April 19, 2025 to May 10, 2025</t>
+          <t>March 21, 2025 to April 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>April 19, 2025</t>
+          <t>March 21, 2025</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>April 11, 2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Mehrnoosh Nazari</t>
+          <t>Janiya Runaya (DS Ref)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -8395,96 +8363,88 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>miavisualdesign@gmail.com</t>
-        </is>
-      </c>
+      <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr"/>
+          <t>Direct - paid w/t assist</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
       <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S77" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>28-Sep</t>
+        </is>
+      </c>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V77" t="inlineStr"/>
       <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr">
-        <is>
-          <t>Vegan/Dairy free</t>
-        </is>
-      </c>
-      <c r="Y77" t="inlineStr">
-        <is>
-          <t>allergic to  walnuts, eggplants, and raw tomatoes // Hold until 5.11</t>
-        </is>
-      </c>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>April 19, 2025 to May 10, 2025</t>
+          <t>March 21, 2025 to April 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>April 19, 2025</t>
+          <t>March 21, 2025</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>April 11, 2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Ylenia Votano</t>
+          <t>Sunita (DS Ref)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -8494,11 +8454,7 @@
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -8513,7 +8469,7 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -8522,11 +8478,7 @@
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr">
         <is>
           <t>2100</t>
@@ -8539,7 +8491,7 @@
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>15-Sep</t>
+          <t>1-Sep</t>
         </is>
       </c>
       <c r="T78" t="inlineStr"/>
@@ -8554,34 +8506,34 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>April 19, 2025 to May 10, 2025</t>
+          <t>March 21, 2025 to April 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>April 19, 2025</t>
+          <t>March 21, 2025</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>April 11, 2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Julia Ben-YB</t>
+          <t>Wahiba daughter-YB</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -8591,11 +8543,7 @@
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -8603,30 +8551,26 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Direct - I was recommended to visit</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -8636,13 +8580,13 @@
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>27-Aug</t>
+          <t>29-Aug</t>
         </is>
       </c>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V79" t="inlineStr"/>
@@ -8651,34 +8595,34 @@
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>April 19, 2025 to May 10, 2025</t>
+          <t>March 21, 2025 to April 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>April 19, 2025</t>
+          <t>March 21, 2025</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>April 11, 2025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Samantha Foster</t>
+          <t>Wahiba-YB</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -8686,108 +8630,88 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>samanthaannefoster@outlook.com</t>
-        </is>
-      </c>
+      <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Instagram </t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>18-Aug-2024</t>
+          <t>29-Aug</t>
         </is>
       </c>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr">
-        <is>
-          <t>samanthaannefoster@outlook.com//hold until 18.08</t>
-        </is>
-      </c>
+      <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>April 19, 2025 to May 10, 2025</t>
+          <t>March 21, 2025 to April 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>April 19, 2025</t>
+          <t>March 21, 2025</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>April 11, 2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Mosana Wahibi Rekhi-YB</t>
+          <t>Rumera Ash-REF</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -8797,11 +8721,7 @@
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>UAE</t>
-        </is>
-      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -8816,7 +8736,7 @@
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -8825,11 +8745,7 @@
         </is>
       </c>
       <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr">
         <is>
           <t>2750</t>
@@ -8842,7 +8758,7 @@
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>27-Aug</t>
+          <t>12-Aug</t>
         </is>
       </c>
       <c r="T81" t="inlineStr"/>
@@ -8857,34 +8773,34 @@
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>April 19, 2025 to May 10, 2025</t>
+          <t>March 21, 2025 to April 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>May 14, 2025</t>
+          <t>March 21, 2025</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>June 04, 2025</t>
+          <t>April 11, 2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Melisa gomez jattin</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -8892,16 +8808,12 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Mgomezjattin95@gmail.com</t>
-        </is>
-      </c>
+      <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -8909,7 +8821,11 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>No</t>
@@ -8917,20 +8833,16 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr">
         <is>
           <t>2100</t>
@@ -8938,76 +8850,68 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>1699.43</t>
-        </is>
-      </c>
-      <c r="S82" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>9-Jul-2024</t>
+        </is>
+      </c>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr">
         <is>
-          <t>400.57</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W82" t="inlineStr">
-        <is>
-          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
-        </is>
-      </c>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr"/>
       <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr">
-        <is>
-          <t>Moved from 1 DEC - 21 DEC 2024</t>
-        </is>
-      </c>
+      <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>May 14, 2025 to June 04, 2025</t>
+          <t>March 21, 2025 to April 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>August 05, 2025</t>
+          <t>March 21, 2025</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>August 26, 2025</t>
+          <t>April 11, 2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Lydia May Ward</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -9015,10 +8919,14 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Private</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr"/>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>No</t>
@@ -9026,7 +8934,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -9034,19 +8942,11 @@
           <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -9056,39 +8956,43 @@
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>11-Oct-2024</t>
+          <t>9-Jul-2024</t>
         </is>
       </c>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr">
         <is>
-          <t>2350</t>
-        </is>
-      </c>
-      <c r="V83" t="inlineStr"/>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
       <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr"/>
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
         <is>
-          <t>August 05, 2025 to August 26, 2025</t>
+          <t>March 21, 2025 to April 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>November 21, 2025</t>
+          <t>March 21, 2025</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>December 12, 2025</t>
+          <t>April 11, 2025</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -9098,60 +9002,40 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Jaina Patel</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr"/>
+          <t>Monica Milillo</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>monicamilillo02@gmail.com</t>
+        </is>
+      </c>
       <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>Search Engines - Google, Safari etc..</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>1890</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -9161,49 +9045,53 @@
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>10-Jul</t>
+          <t>8-Sep-2024</t>
         </is>
       </c>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr">
         <is>
-          <t>1490</t>
-        </is>
-      </c>
-      <c r="V84" t="inlineStr"/>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
       <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr"/>
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>November 21, 2025 to December 12, 2025</t>
+          <t>March 21, 2025 to April 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>December 16, 2025</t>
+          <t>April 19, 2025</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>January 06, 2026</t>
+          <t>May 10, 2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Anatta Vela</t>
+          <t>Junita-aya Rowland YTP</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -9212,15 +9100,11 @@
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>+19179388805</t>
-        </is>
-      </c>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -9229,86 +9113,74 @@
         </is>
       </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
       <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S85" t="inlineStr">
-        <is>
-          <t>28-May-2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr">
         <is>
-          <t>2350</t>
-        </is>
-      </c>
-      <c r="V85" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W85" t="inlineStr">
-        <is>
-          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
       <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr">
-        <is>
-          <t>anatta.vela@gmail.com moved from Dec 23rd 2024</t>
-        </is>
-      </c>
+      <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>December 16, 2025 to January 06, 2026</t>
+          <t>April 19, 2025 to May 10, 2025</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>December 16, 2025</t>
+          <t>April 19, 2025</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>January 06, 2026</t>
+          <t>May 10, 2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Helena von Keller</t>
+          <t>Sarah Cowperthwaite YTP</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -9317,51 +9189,47 @@
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>+491728129488</t>
-        </is>
-      </c>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
       <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>12 July 2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr">
         <is>
@@ -9369,57 +9237,49 @@
         </is>
       </c>
       <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
+      <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr">
-        <is>
-          <t>helena@vonkeller.org. Moved from 3 Sep 2024 - 23 Sep 2024. Management agreed to reschedule without additional charge. (amoCRM)</t>
-        </is>
-      </c>
+      <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>December 16, 2025 to January 06, 2026</t>
+          <t>April 19, 2025 to May 10, 2025</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>December 16, 2025</t>
+          <t>April 19, 2025</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>January 06, 2026</t>
+          <t>May 10, 2025</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Paul Vigil</t>
+          <t>Melisa gomez jattin</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>paul33vigil@gmail.com</t>
+          <t>Mgomezjattin95@gmail.com</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -9445,9 +9305,17 @@
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
       <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q87" t="inlineStr">
         <is>
           <t>2100</t>
@@ -9455,23 +9323,19 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>01-May-2024</t>
-        </is>
-      </c>
+          <t>1699.43</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>400.57</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W87" t="inlineStr">
@@ -9482,15 +9346,1360 @@
       <c r="X87" t="inlineStr"/>
       <c r="Y87" t="inlineStr">
         <is>
+          <t>Moved from 1 DEC - 21 DEC 2024</t>
+        </is>
+      </c>
+      <c r="Z87" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AA87" t="inlineStr">
+        <is>
+          <t>April 19, 2025 to May 10, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>April 19, 2025</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>May 10, 2025</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Ellie Walters</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>elliewalters98@gmail.com</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>Direct - paid w/t assist</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>4-Sep-2024</t>
+        </is>
+      </c>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr">
+        <is>
+          <t>elliewalters98@gmail.com</t>
+        </is>
+      </c>
+      <c r="Z88" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AA88" t="inlineStr">
+        <is>
+          <t>April 19, 2025 to May 10, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>April 19, 2025</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>May 10, 2025</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Julia Ben-YB</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>RYP</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Direct - I was recommended to visit</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>27-Aug</t>
+        </is>
+      </c>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AA89" t="inlineStr">
+        <is>
+          <t>April 19, 2025 to May 10, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>April 19, 2025</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>May 10, 2025</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Ylenia Votano</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>RYP</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>15-Sep</t>
+        </is>
+      </c>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AA90" t="inlineStr">
+        <is>
+          <t>April 19, 2025 to May 10, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>April 19, 2025</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>May 10, 2025</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Mosana Wahibi Rekhi-YB</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>RYP</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>27-Aug</t>
+        </is>
+      </c>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr"/>
+      <c r="Z91" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AA91" t="inlineStr">
+        <is>
+          <t>April 19, 2025 to May 10, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>April 19, 2025</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>May 10, 2025</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Samantha Foster</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>samanthaannefoster@outlook.com</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Instagram </t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>18-Aug-2024</t>
+        </is>
+      </c>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr">
+        <is>
+          <t>samanthaannefoster@outlook.com//hold until 18.08</t>
+        </is>
+      </c>
+      <c r="Z92" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AA92" t="inlineStr">
+        <is>
+          <t>April 19, 2025 to May 10, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>April 19, 2025</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>May 10, 2025</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Mehrnoosh Nazari</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>miavisualdesign@gmail.com</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>Vegan/Dairy free</t>
+        </is>
+      </c>
+      <c r="Y93" t="inlineStr">
+        <is>
+          <t>allergic to  walnuts, eggplants, and raw tomatoes // Hold until 5.11</t>
+        </is>
+      </c>
+      <c r="Z93" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AA93" t="inlineStr">
+        <is>
+          <t>April 19, 2025 to May 10, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>July 07, 2025</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>July 28, 2025</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Madita Mayr</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>madita.mayr@gmail.com</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>+43 (664) 735-88783</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>Direct - paid w/t assist</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>11-Nov-2024</t>
+        </is>
+      </c>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AA94" t="inlineStr">
+        <is>
+          <t>July 07, 2025 to July 28, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>August 05, 2025</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>August 26, 2025</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Lydia May Ward</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>RYP</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>11-Oct-2024</t>
+        </is>
+      </c>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
+      <c r="Z95" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AA95" t="inlineStr">
+        <is>
+          <t>August 05, 2025 to August 26, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>September 28, 2025</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>October 19, 2025</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Bianka Maliku</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>bianka.maliku@gmail.com // GIACOMO95.BOIDO@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>4525169119</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr">
+        <is>
+          <t>Moved from May 2025 BALI</t>
+        </is>
+      </c>
+      <c r="Z96" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AA96" t="inlineStr">
+        <is>
+          <t>September 28, 2025 to October 19, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>November 21, 2025</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>December 12, 2025</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Jaina Patel</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>RYP</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>1890</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>10-Jul</t>
+        </is>
+      </c>
+      <c r="T97" t="inlineStr"/>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>1490</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr"/>
+      <c r="Z97" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AA97" t="inlineStr">
+        <is>
+          <t>November 21, 2025 to December 12, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>December 16, 2025</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>January 06, 2026</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Anatta Vela</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>+19179388805</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>28-May-2024</t>
+        </is>
+      </c>
+      <c r="T98" t="inlineStr"/>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W98" t="inlineStr">
+        <is>
+          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+        </is>
+      </c>
+      <c r="X98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr">
+        <is>
+          <t>anatta.vela@gmail.com moved from Dec 23rd 2024</t>
+        </is>
+      </c>
+      <c r="Z98" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AA98" t="inlineStr">
+        <is>
+          <t>December 16, 2025 to January 06, 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>December 16, 2025</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>January 06, 2026</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Helena von Keller</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>+491728129488</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>12 July 2024</t>
+        </is>
+      </c>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr">
+        <is>
+          <t>helena@vonkeller.org. Moved from 3 Sep 2024 - 23 Sep 2024. Management agreed to reschedule without additional charge. (amoCRM)</t>
+        </is>
+      </c>
+      <c r="Z99" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AA99" t="inlineStr">
+        <is>
+          <t>December 16, 2025 to January 06, 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>December 16, 2025</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>January 06, 2026</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Paul Vigil</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>paul33vigil@gmail.com</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>01-May-2024</t>
+        </is>
+      </c>
+      <c r="T100" t="inlineStr"/>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+        </is>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr">
+        <is>
           <t>Moved from Dec 1st 2024 - doesn't mind sharing room with female</t>
         </is>
       </c>
-      <c r="Z87" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AA87" t="inlineStr">
+      <c r="Z100" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AA100" t="inlineStr">
         <is>
           <t>December 16, 2025 to January 06, 2026</t>
         </is>

--- a/data/ryp_student_database_200hr.xlsx
+++ b/data/ryp_student_database_200hr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA100"/>
+  <dimension ref="A1:AA103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1015,12 +1015,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Maryam Kargar</t>
+          <t>Patricia Vang Nielsen</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1030,13 +1030,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>maryamkargar23@gmail.com</t>
+          <t>Patriciavn884@gmail.com</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>06-Nov-2024</t>
+          <t>31-Oct-2024</t>
         </is>
       </c>
       <c r="T6" t="inlineStr"/>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>Doku</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1103,7 +1103,11 @@
         </is>
       </c>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>she has a small injury in my right shoulder from an old yoga retreat</t>
+        </is>
+      </c>
       <c r="Z6" t="inlineStr">
         <is>
           <t>1</t>
@@ -1439,12 +1443,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DS group 1 (NZ)</t>
+          <t>Julie Hollard</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1452,23 +1456,27 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>hollardjulie@gmail.com</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1489,7 +1497,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1499,16 +1507,20 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>10-Nov</t>
+          <t>26-Oct-2024</t>
         </is>
       </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr"/>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Stripe</t>
+        </is>
+      </c>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
@@ -1536,12 +1548,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DS group 2 (NZ)</t>
+          <t>DS group 1 (NZ)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1886,17 +1898,25 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr"/>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>18-Nov-2024</t>
+        </is>
+      </c>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr"/>
+          <t>1705</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Bank transfer</t>
+        </is>
+      </c>
       <c r="W14" t="inlineStr">
         <is>
           <t>No</t>
@@ -1905,7 +1925,7 @@
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>Bank trf made // plans to book 1 extra night on Feb 16 (availabilty confirmed) // currently treating a hip discomfort, so far doctors do not see any major problem.</t>
+          <t>Plans to book 1 extra night on Feb 16 (availabilty confirmed) // currently treating a hip discomfort, so far doctors do not see any major problem.</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2255,12 +2275,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Julie Hollard</t>
+          <t>Duria Dasan (Ref DS)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2268,16 +2288,12 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>hollardjulie@gmail.com</t>
-        </is>
-      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2288,7 +2304,7 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -2314,25 +2330,17 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>26-Oct-2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2350</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>Stripe</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
@@ -2360,12 +2368,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Dani Bass</t>
+          <t>DS group 2 (NZ)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2373,25 +2381,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Dani.bass@btinternet.com</t>
-        </is>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -2418,33 +2418,29 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>10-Nov</t>
+        </is>
+      </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>Had an issue Bank transfer.. Will make a new payment (17 Nov)</t>
-        </is>
-      </c>
+      <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
           <t>1</t>
@@ -2469,12 +2465,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Patricia Vang Nielsen</t>
+          <t>Dani Bass</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2484,13 +2480,13 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Patriciavn884@gmail.com</t>
+          <t>Dani.bass@btinternet.com</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2500,7 +2496,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -2527,30 +2523,22 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>31-Oct-2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr">
         <is>
           <t>No</t>
@@ -2559,7 +2547,7 @@
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>she has a small injury in my right shoulder from an old yoga retreat</t>
+          <t>Had an issue Bank transfer.. Will make a new payment (17 Nov)</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2586,12 +2574,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Katrina Di</t>
+          <t>Maryam Kargar</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2601,17 +2589,13 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Katrinadin@gmail.com</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>+15202484721</t>
-        </is>
-      </c>
+          <t>maryamkargar23@gmail.com</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2621,7 +2605,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -2648,37 +2632,37 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>2746.24</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>14-Oct-2024</t>
+          <t>06-Nov-2024</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr"/>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Doku</t>
+        </is>
+      </c>
       <c r="W21" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
       <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>additional night on the 16th of February</t>
-        </is>
-      </c>
+      <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
           <t>1</t>
@@ -2703,12 +2687,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Veronika Schaller</t>
+          <t>Katrina Di</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2718,11 +2702,19 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vroni.schaller@web.de</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+          <t>Katrinadin@gmail.com</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>+15202484721</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -2730,7 +2722,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -2752,35 +2744,31 @@
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>2746.24</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>22-Aug-2024</t>
+          <t>14-Oct-2024</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr">
         <is>
           <t>No</t>
@@ -2789,7 +2777,7 @@
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>Vroni.schaller@web.de</t>
+          <t>additional night on the 16th of February</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -2816,12 +2804,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Amalia Sepan</t>
+          <t>Veronika Schaller</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2831,15 +2819,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve">amalia.sepan@icloud.com </t>
+          <t>Vroni.schaller@web.de</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -2850,11 +2834,7 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Partner // Sharing Room</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
           <t>No</t>
@@ -2873,7 +2853,7 @@
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -2883,7 +2863,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>382.25</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -2894,12 +2874,12 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>1717.75</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -2910,7 +2890,7 @@
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>Together // amalia.sepan@icloud.com // Capeman2110@gmail.com</t>
+          <t>Vroni.schaller@web.de</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -2937,12 +2917,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Vyla Carter</t>
+          <t>Amalia Sepan</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2950,12 +2930,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">amalia.sepan@icloud.com </t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2963,7 +2951,11 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Partner // Sharing Room</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
           <t>No</t>
@@ -2992,26 +2984,34 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>382.25</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>14-Oct-2024</t>
+          <t>22-Aug-2024</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
+          <t>1717.75</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>Additional 2 days stay - 24/25 Jan @ $90 per day. Will pay with the balance</t>
+          <t>Together // amalia.sepan@icloud.com // Capeman2110@gmail.com</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3038,12 +3038,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Caroline Kohl</t>
+          <t>Vyla Carter</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -3051,24 +3051,12 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>caroline_kohl@web.de</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>+49 171 691 2356</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>caroline_kohl@web.de</t>
-        </is>
-      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3077,7 +3065,11 @@
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M25" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -3106,7 +3098,7 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>5-Sep-2024</t>
+          <t>14-Oct-2024</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
@@ -3115,20 +3107,12 @@
           <t>1700</t>
         </is>
       </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>caroline_kohl@web.de</t>
+          <t>Additional 2 days stay - 24/25 Jan @ $90 per day. Will pay with the balance</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -3155,25 +3139,37 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Adrian Sotelo</t>
+          <t>Caroline Kohl</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>caroline_kohl@web.de</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>+49 171 691 2356</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>caroline_kohl@web.de</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -3182,11 +3178,7 @@
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -3194,7 +3186,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -3205,7 +3197,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>4200</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -3215,13 +3207,13 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>22-Sep-2024</t>
+          <t>5-Sep-2024</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>3800</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -3235,7 +3227,11 @@
         </is>
       </c>
       <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>caroline_kohl@web.de</t>
+        </is>
+      </c>
       <c r="Z26" t="inlineStr">
         <is>
           <t>1</t>
@@ -3260,30 +3256,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Maddison Ball</t>
+          <t>Adrian Sotelo</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>+44 7958 032112</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -3297,7 +3285,7 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -3318,7 +3306,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -3328,21 +3316,25 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>10-Aug-2024</t>
+          <t>22-Sep-2024</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>3800</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Bank transfer</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr"/>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
@@ -3369,38 +3361,38 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Pien Bergshoeff</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>pienbergshoeff@gmail.com</t>
-        </is>
-      </c>
+          <t>Maddison Ball</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>+31621237804</t>
+          <t>+44 7958 032112</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Netherland</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -3411,12 +3403,12 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -3427,41 +3419,33 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>1262.38</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>26-Sep-2024</t>
+          <t>10-Aug-2024</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>1487.62</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Bank transfer</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Will join the short retreat, first retreat will be scheduled from the 23rd of January - 26th of January and the second retreat will be from the 16th of February - 19th of February 2025. </t>
-        </is>
-      </c>
+      <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
           <t>1</t>
@@ -3486,32 +3470,28 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Amy Sobocinski</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
+          <t>Pien Bergshoeff</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Amymsobocinski@gmail.com</t>
+          <t>pienbergshoeff@gmail.com</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>+14102994767</t>
+          <t>+31621237804</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Netherland</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -3532,7 +3512,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -3553,23 +3533,23 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>1262.38</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>01-Oct-2024</t>
+          <t>26-Sep-2024</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1487.62</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Stripe</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
@@ -3578,7 +3558,11 @@
         </is>
       </c>
       <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Will join the short retreat, first retreat will be scheduled from the 23rd of January - 26th of January and the second retreat will be from the 16th of February - 19th of February 2025. </t>
+        </is>
+      </c>
       <c r="Z29" t="inlineStr">
         <is>
           <t>1</t>
@@ -3603,28 +3587,32 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Jan Röttgen</t>
+          <t>Amy Sobocinski</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Capeman2110@gmail.com</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
+          <t>Amymsobocinski@gmail.com</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>+14102994767</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>US</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -3634,7 +3622,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -3661,28 +3649,28 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>382.25</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>22-Aug-2024</t>
+          <t>01-Oct-2024</t>
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>1717.75</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Stripe</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -3716,30 +3704,30 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Chloe Holden</t>
+          <t>Jan Röttgen</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>chloeholden1402@gmail.com</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>+61487440313</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
+          <t>Capeman2110@gmail.com</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -3758,7 +3746,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -3779,23 +3767,23 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>382.25</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>13-Oct-2024</t>
+          <t>22-Aug-2024</t>
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1717.75</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Xendit</t>
+          <t>PayPal</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
@@ -3803,11 +3791,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>Gluten Free</t>
-        </is>
-      </c>
+      <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
@@ -3833,12 +3817,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Samantha (with dghtr)</t>
+          <t>Chloe Holden</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3846,17 +3830,25 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>chloeholden1402@gmail.com</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>+61487440313</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -3867,7 +3859,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -3883,32 +3875,40 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>12-Oct-2024</t>
+          <t>13-Oct-2024</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>2350</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
       <c r="W32" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="X32" t="inlineStr"/>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Gluten Free</t>
+        </is>
+      </c>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
@@ -3934,12 +3934,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Samin Yoga Gp 1</t>
+          <t>Samantha (with dghtr)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3957,7 +3957,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -3984,7 +3984,7 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3994,17 +3994,21 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>13-Oct-2024</t>
+          <t>12-Oct-2024</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
@@ -4031,12 +4035,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Samin Yoga Gp 2</t>
+          <t>Samin Yoga Gp 1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -4128,12 +4132,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Samin Yoga Gp 3</t>
+          <t>Samin Yoga Gp 2</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -4225,12 +4229,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Samin Yoga Gp 4</t>
+          <t>Samin Yoga Gp 3</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -4248,7 +4252,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -4275,7 +4279,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -4291,7 +4295,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V36" t="inlineStr"/>
@@ -4322,17 +4326,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Efstratios Marougkas (Stratos) </t>
+          <t>Samin Yoga Gp 4</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -4419,34 +4423,30 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Brooke O'Connor</t>
+          <t xml:space="preserve">Efstratios Marougkas (Stratos) </t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>bgoc2013@icloud.com</t>
-        </is>
-      </c>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -4473,7 +4473,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -4483,25 +4483,17 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>17-Oct-2024</t>
+          <t>13-Oct-2024</t>
         </is>
       </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>Bank transfer</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
@@ -4518,22 +4510,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>February 24, 2025</t>
+          <t>January 26, 2025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>March 17, 2025</t>
+          <t>February 16, 2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Freya Pye</t>
+          <t>Brooke O'Connor</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -4543,7 +4535,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>freya.pye8@gmail.com</t>
+          <t>bgoc2013@icloud.com</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -4592,7 +4584,7 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>1 November 2024</t>
+          <t>17-Oct-2024</t>
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
@@ -4603,20 +4595,24 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr"/>
+          <t>Bank transfer</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>February 24, 2025 to March 17, 2025</t>
+          <t>January 26, 2025 to February 16, 2025</t>
         </is>
       </c>
     </row>
@@ -4633,12 +4629,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Laura</t>
+          <t>Freya Pye</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -4648,7 +4644,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>laurawilstrup@gmail.com</t>
+          <t>freya.pye8@gmail.com</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -4664,15 +4660,19 @@
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -4693,7 +4693,7 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>3-November-2024</t>
+          <t>1 November 2024</t>
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
@@ -4709,11 +4709,7 @@
       </c>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>Friends sharing the same room</t>
-        </is>
-      </c>
+      <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
           <t>2</t>
@@ -4738,12 +4734,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Aya Reimann</t>
+          <t>Laura</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -4753,7 +4749,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>ayareimann@gmail.com</t>
+          <t>laurawilstrup@gmail.com</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -4798,7 +4794,7 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>6-November-2024</t>
+          <t>3-November-2024</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
@@ -4809,12 +4805,16 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>Friends sharing the same room</t>
+        </is>
+      </c>
       <c r="Z41" t="inlineStr">
         <is>
           <t>2</t>
@@ -4839,12 +4839,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Maud CAMBON</t>
+          <t>Aya Reimann</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -4854,15 +4854,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>maud.34.cambon@gmail.com</t>
+          <t>ayareimann@gmail.com</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -4870,23 +4866,19 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -4897,12 +4889,12 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>382.1</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -4913,7 +4905,7 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>2367.9</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -4948,12 +4940,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Pauline Andre</t>
+          <t>Maud CAMBON</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -4963,15 +4955,15 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>pauline.andre17490@gmail.com</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>+971 523243816</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr"/>
+          <t>maud.34.cambon@gmail.com</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -4979,7 +4971,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -5006,37 +4998,33 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>382.1</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>9 November 2024</t>
+          <t>6-November-2024</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2367.9</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Xendit</t>
+          <t>PayPal</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr">
-        <is>
-          <t>I broke a rib at the end of September 2024, but it is currently healing and should be perfectly healed for the yoga program in February 2024.</t>
-        </is>
-      </c>
+      <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
           <t>2</t>
@@ -5061,12 +5049,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Petroni Issa (Ref DS)</t>
+          <t>Pauline Andre</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -5074,12 +5062,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>pauline.andre17490@gmail.com</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>+971 523243816</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -5088,7 +5084,11 @@
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M44" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -5115,17 +5115,29 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S44" t="inlineStr"/>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>9 November 2024</t>
+        </is>
+      </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
           <t>1700</t>
         </is>
       </c>
-      <c r="V44" t="inlineStr"/>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>I broke a rib at the end of September 2024, but it is currently healing and should be perfectly healed for the yoga program in February 2024.</t>
+        </is>
+      </c>
       <c r="Z44" t="inlineStr">
         <is>
           <t>2</t>
@@ -5150,12 +5162,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Christina Demissi</t>
+          <t>Diane</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -5165,10 +5177,14 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>christina.demissi@gmail.com</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr"/>
+          <t>daunasdiane@gmail.com</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>+971 557104954</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
@@ -5177,15 +5193,11 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -5204,7 +5216,7 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -5214,13 +5226,13 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>9 November 2024</t>
+          <t>11 November 2024</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -5228,13 +5240,13 @@
           <t>Xendit</t>
         </is>
       </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>I have an old tendinitis in my left shoulder, though it hasn’t caused any issues for a few years now. Additionally, I manage a hormonal imbalance that requires me to rest adequately, but I am prepared for the retreat’s intensive schedule.</t>
+        </is>
+      </c>
       <c r="Z45" t="inlineStr">
         <is>
           <t>2</t>
@@ -5259,12 +5271,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Helena Quist</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -5348,12 +5360,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Rohila Titha Agoni (Ref DS)</t>
+          <t>Thais</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -5437,49 +5449,65 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Monika &amp; Her Husband</t>
+          <t>Dragana Vukanovska</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>monika.gruenenberg@web.de</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Monika will join the 200HR YTT and her husband will join Yoga &amp; Ayurveda Retreat as well if any spot available on this date</t>
-        </is>
-      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>RYP</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
       <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V48" t="inlineStr"/>
@@ -5510,88 +5538,52 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Gabriel Campaner Bascuñana</t>
+          <t>Monika &amp; Her Husband</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>GabrielCampanerCoach@gmail.com // gcampaner_91@hotmail.com</t>
-        </is>
-      </c>
+          <t>monika.gruenenberg@web.de</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>3460387145</t>
+          <t>Monika will join the 200HR YTT and her husband will join Yoga &amp; Ayurveda Retreat as well if any spot available on this date</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>HOM</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Twin share</t>
-        </is>
-      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>2 November 2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
@@ -5619,91 +5611,55 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Diane</t>
+          <t>Eliaan Blijdenstein</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>daunasdiane@gmail.com</t>
-        </is>
-      </c>
+          <t>e.e.blijdenstein@gmail.com</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>+971 557104954</t>
+          <t>Prefer private room</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>HOM</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Twin share</t>
-        </is>
-      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
-        </is>
-      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>11 November 2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr">
-        <is>
-          <t>I have an old tendinitis in my left shoulder, though it hasn’t caused any issues for a few years now. Additionally, I manage a hormonal imbalance that requires me to rest adequately, but I am prepared for the retreat’s intensive schedule.</t>
-        </is>
-      </c>
+      <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
           <t>2</t>
@@ -5728,25 +5684,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Nicole Dubinin</t>
+          <t>Gabriel Campaner Bascuñana</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Nicoledubinin9@gmail.com</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr"/>
+          <t>GabrielCampanerCoach@gmail.com // gcampaner_91@hotmail.com</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>3460387145</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
@@ -5792,7 +5752,7 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>16 October 2024</t>
+          <t>2 November 2024</t>
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
@@ -5808,11 +5768,7 @@
       </c>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr">
-        <is>
-          <t>Nicoledubinin9@gmail.com</t>
-        </is>
-      </c>
+      <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
           <t>2</t>
@@ -5837,12 +5793,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Jessica Eryeti Dy</t>
+          <t>Christina Demissi</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -5852,7 +5808,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>jessicaedy.work@gmail.com</t>
+          <t>christina.demissi@gmail.com</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -5864,7 +5820,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -5891,7 +5847,7 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -5901,27 +5857,27 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>7-Sep-2024</t>
+          <t>9 November 2024</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr"/>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> jessicaedy.wok@gmail.com</t>
-        </is>
-      </c>
+      <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
           <t>2</t>
@@ -5946,12 +5902,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Maren Refert</t>
+          <t>Nicole Dubinin</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -5961,7 +5917,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>maren.refert@gmx.com</t>
+          <t>Nicoledubinin9@gmail.com</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -5984,7 +5940,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -6010,7 +5966,7 @@
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>21 Sep 2024</t>
+          <t>16 October 2024</t>
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
@@ -6026,7 +5982,11 @@
       </c>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>Nicoledubinin9@gmail.com</t>
+        </is>
+      </c>
       <c r="Z53" t="inlineStr">
         <is>
           <t>2</t>
@@ -6051,12 +6011,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Ulrike Maier</t>
+          <t>Jessica Eryeti Dy</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -6066,7 +6026,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>maier.ulrike64@gmx.de</t>
+          <t>jessicaedy.work@gmail.com</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -6094,7 +6054,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Instagram </t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -6110,30 +6070,30 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>399.31</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>21-Aug-2024</t>
+          <t>7-Sep-2024</t>
         </is>
       </c>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>1700.69</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>maier.ulrike64@gmx.de</t>
+          <t xml:space="preserve"> jessicaedy.wok@gmail.com</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
@@ -6265,12 +6225,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Kanan</t>
+          <t>Ulrike Maier</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -6278,21 +6238,21 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>maier.ulrike64@gmx.de</t>
+        </is>
+      </c>
       <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -6308,32 +6268,48 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t xml:space="preserve">Instagram </t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr"/>
+          <t>399.31</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>21-Aug-2024</t>
+        </is>
+      </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V56" t="inlineStr"/>
+          <t>1700.69</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>maier.ulrike64@gmx.de</t>
+        </is>
+      </c>
       <c r="Z56" t="inlineStr">
         <is>
           <t>2</t>
@@ -6358,12 +6334,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Sarah Rayment Davies</t>
+          <t xml:space="preserve">Kristhianne Cid de León </t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -6416,21 +6392,29 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S57" t="inlineStr"/>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>10-Jul-2024</t>
+        </is>
+      </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
           <t>1700</t>
         </is>
       </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+        </is>
+      </c>
       <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>Booked in Jul 2024 at previous fee. Due to injury changing to Feb 2024 with the new fee</t>
+        </is>
+      </c>
       <c r="Z57" t="inlineStr">
         <is>
           <t>2</t>
@@ -6455,12 +6439,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Mahariana</t>
+          <t>Maren Refert</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -6468,17 +6452,21 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>maren.refert@gmx.com</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -6489,12 +6477,12 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -6505,7 +6493,7 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -6513,25 +6501,25 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S58" t="inlineStr"/>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>21 Sep 2024</t>
+        </is>
+      </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>1572</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Already paid $400 to HOM but changed to Retreat and then further change to TTC in 2025 after multiple calls </t>
-        </is>
-      </c>
+      <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
           <t>2</t>
@@ -6556,12 +6544,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kristhianne Cid de León </t>
+          <t>Kanan (Ref DS)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -6571,7 +6559,11 @@
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="I59" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -6579,7 +6571,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -6599,44 +6591,28 @@
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>10-Jul-2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
-        </is>
-      </c>
+      <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr">
-        <is>
-          <t>Booked in Jul 2024 at previous fee. Due to injury changing to Feb 2024 with the new fee</t>
-        </is>
-      </c>
+      <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
           <t>2</t>
@@ -6661,26 +6637,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Asaf kehati</t>
+          <t>Mahariana</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -6688,14 +6660,10 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Twin share</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>No</t>
@@ -6719,7 +6687,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -6727,15 +6695,11 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>10-Sep</t>
-        </is>
-      </c>
+      <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>1572</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
@@ -6745,7 +6709,11 @@
       </c>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Already paid $400 to HOM but changed to Retreat and then further change to TTC in 2025 after multiple calls </t>
+        </is>
+      </c>
       <c r="Z60" t="inlineStr">
         <is>
           <t>2</t>
@@ -6770,12 +6738,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Jutta</t>
+          <t>Sarah Rayment Davies</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -6785,11 +6753,7 @@
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -6800,11 +6764,7 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>No</t>
@@ -6875,41 +6835,41 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Asaf kehati</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>RYP</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Nathalia Ramirez</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>nathy924@hotmail.com</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>HOM</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Twin share</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>No</t>
@@ -6922,7 +6882,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -6943,7 +6903,7 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>28 September 2024</t>
+          <t>10-Sep</t>
         </is>
       </c>
       <c r="T62" t="inlineStr"/>
@@ -6954,20 +6914,12 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr">
-        <is>
-          <t>Husband &amp; Wife - sharing Private Room // Nat has mild pollen allergy, but taking medications and she will be fine</t>
-        </is>
-      </c>
+      <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
           <t>2</t>
@@ -6992,33 +6944,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Jonathan Saldarriaga</t>
+          <t>Jutta</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Jonathan0391@hotmail.com</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>+4917664828174</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr"/>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -7028,7 +6976,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -7043,7 +6991,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -7062,11 +7010,7 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>28 September 2024</t>
-        </is>
-      </c>
+      <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
@@ -7075,14 +7019,10 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W63" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
@@ -7109,38 +7049,46 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Nathalia Ramirez</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>nathy924@hotmail.com</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Ben McDonald-Stuart</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>RYP</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Twin share</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M64" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -7148,7 +7096,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -7169,7 +7117,7 @@
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>20-Sep</t>
+          <t>28 September 2024</t>
         </is>
       </c>
       <c r="T64" t="inlineStr"/>
@@ -7180,7 +7128,7 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
@@ -7189,7 +7137,11 @@
         </is>
       </c>
       <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>Husband &amp; Wife - sharing Private Room // Nat has mild pollen allergy, but taking medications and she will be fine</t>
+        </is>
+      </c>
       <c r="Z64" t="inlineStr">
         <is>
           <t>2</t>
@@ -7214,37 +7166,45 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Carly Murphy</t>
+          <t>Jonathan Saldarriaga</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Jonathan0391@hotmail.com</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>+4917664828174</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Private</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr"/>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>No</t>
@@ -7257,7 +7217,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -7268,7 +7228,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -7278,27 +7238,27 @@
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>10-Aug-2024</t>
+          <t>28 September 2024</t>
         </is>
       </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W65" t="inlineStr"/>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr">
-        <is>
-          <t>Booking done in early Aug but updated the sheet late</t>
-        </is>
-      </c>
+      <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
           <t>2</t>
@@ -7313,12 +7273,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>March 21, 2025</t>
+          <t>February 24, 2025</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>April 11, 2025</t>
+          <t>March 17, 2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -7328,44 +7288,52 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Bethany Bradbury</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>bethanymbradbury@gmail.com</t>
-        </is>
-      </c>
+          <t>Ben McDonald-Stuart</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -7375,18 +7343,18 @@
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>28-Oct-2024</t>
+          <t>20-Sep</t>
         </is>
       </c>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Xendit</t>
+          <t>PayPal</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
@@ -7398,40 +7366,48 @@
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>March 21, 2025 to April 11, 2025</t>
+          <t>February 24, 2025 to March 17, 2025</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>March 21, 2025</t>
+          <t>February 24, 2025</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>April 11, 2025</t>
+          <t>March 17, 2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Ratnaben Parekh</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr"/>
+          <t>Carly Murphy</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
       <c r="I67" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -7443,19 +7419,27 @@
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q67" t="inlineStr">
         <is>
           <t>2750</t>
@@ -7466,25 +7450,37 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S67" t="inlineStr"/>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>10-Aug-2024</t>
+        </is>
+      </c>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
           <t>2350</t>
         </is>
       </c>
-      <c r="V67" t="inlineStr"/>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>Booking done in early Aug but updated the sheet late</t>
+        </is>
+      </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>March 21, 2025 to April 11, 2025</t>
+          <t>February 24, 2025 to March 17, 2025</t>
         </is>
       </c>
     </row>
@@ -7501,15 +7497,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Sikka Ayama</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr"/>
+          <t>Rubina Malik Ayama YTC</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
@@ -7520,7 +7520,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
@@ -7539,7 +7539,7 @@
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -7555,7 +7555,7 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V68" t="inlineStr"/>
@@ -7586,12 +7586,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Dirukha Ayama</t>
+          <t>Tamara Fenech</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -7599,17 +7599,21 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>tamara@cosiestudio.com</t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -7628,7 +7632,7 @@
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -7638,17 +7642,25 @@
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>17 Nov 2024</t>
+          <t>15 Nov 2024</t>
         </is>
       </c>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
@@ -7675,21 +7687,25 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Rukhsana Ayama</t>
+          <t>Ashok YTP</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>+61 432 209 549</t>
+        </is>
+      </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
@@ -7727,7 +7743,7 @@
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>17 Nov 2024</t>
+          <t>16 Nov 2024</t>
         </is>
       </c>
       <c r="T70" t="inlineStr"/>
@@ -7764,12 +7780,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Rubina Malik Ayama YTC</t>
+          <t>Rukhsana Ayama</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -7853,25 +7869,25 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Ashok YTP</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr"/>
+          <t>Bethany Bradbury</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>bethanymbradbury@gmail.com</t>
+        </is>
+      </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -7905,7 +7921,7 @@
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>16 Nov 2024</t>
+          <t>28-Oct-2024</t>
         </is>
       </c>
       <c r="T72" t="inlineStr"/>
@@ -7914,8 +7930,16 @@
           <t>2350</t>
         </is>
       </c>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
@@ -7942,12 +7966,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Tamara Fenech</t>
+          <t>Sikka Ayama</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -7955,21 +7979,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>tamara@cosiestudio.com</t>
-        </is>
-      </c>
+      <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K73" t="inlineStr"/>
@@ -7988,7 +8008,7 @@
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -7998,25 +8018,17 @@
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>15 Nov 2024</t>
+          <t>17 Nov 2024</t>
         </is>
       </c>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>2350</t>
-        </is>
-      </c>
-      <c r="V73" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W73" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
@@ -8043,12 +8055,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Jéssica Schleiermacher</t>
+          <t>Ratnaben Parekh  (Ref DS)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -8056,16 +8068,12 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>jessicasimiro@gmail.com</t>
-        </is>
-      </c>
+      <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -8077,7 +8085,7 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -8086,11 +8094,7 @@
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr">
         <is>
           <t>2750</t>
@@ -8101,27 +8105,15 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t>24-Oct-2024</t>
-        </is>
-      </c>
+      <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
           <t>2350</t>
         </is>
       </c>
-      <c r="V74" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W74" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
@@ -8148,12 +8140,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Tanya Mistry</t>
+          <t>Rino Yoshimoto</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -8163,19 +8155,11 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Tanyamistry94@gmail.com // she cannot eat paneer // Moved from Jan</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>919820611611</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>vb.rino824@gmail.com</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -8190,7 +8174,7 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -8199,11 +8183,7 @@
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr">
         <is>
           <t>2750</t>
@@ -8216,7 +8196,7 @@
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>31-Aug-2024</t>
+          <t>18-Nov-2024</t>
         </is>
       </c>
       <c r="T75" t="inlineStr"/>
@@ -8227,7 +8207,7 @@
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>Stripe</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W75" t="inlineStr">
@@ -8235,11 +8215,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="X75" t="inlineStr">
-        <is>
-          <t>Vegan/Dairy free</t>
-        </is>
-      </c>
+      <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
@@ -8265,25 +8241,25 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Gwen Deitz</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>gwendeitz3611@gmail.com</t>
-        </is>
-      </c>
+          <t>Dirukha Ayama</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -8293,8 +8269,16 @@
       </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>Direct - paid w/t assist</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr">
@@ -8309,7 +8293,7 @@
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>10-Oct-2024</t>
+          <t>17 Nov 2024</t>
         </is>
       </c>
       <c r="T76" t="inlineStr"/>
@@ -8318,11 +8302,7 @@
           <t>1700</t>
         </is>
       </c>
-      <c r="V76" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+      <c r="V76" t="inlineStr"/>
       <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
@@ -8350,12 +8330,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Janiya Runaya (DS Ref)</t>
+          <t>Jéssica Schleiermacher</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -8363,12 +8343,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>jessicasimiro@gmail.com</t>
+        </is>
+      </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -8380,16 +8364,20 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q77" t="inlineStr">
         <is>
           <t>2750</t>
@@ -8402,7 +8390,7 @@
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>28-Sep</t>
+          <t>24-Oct-2024</t>
         </is>
       </c>
       <c r="T77" t="inlineStr"/>
@@ -8411,8 +8399,16 @@
           <t>2350</t>
         </is>
       </c>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
@@ -8439,12 +8435,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Sunita (DS Ref)</t>
+          <t>Tanya Mistry</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -8452,36 +8448,52 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Tanyamistry94@gmail.com // she cannot eat paneer // Moved from Jan</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>919820611611</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -8491,18 +8503,30 @@
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>1-Sep</t>
+          <t>31-Aug-2024</t>
         </is>
       </c>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>Stripe</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>Vegan/Dairy free</t>
+        </is>
+      </c>
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
@@ -8528,25 +8552,25 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Wahiba daughter-YB</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr"/>
+          <t>Gwen Deitz</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>gwendeitz3611@gmail.com</t>
+        </is>
+      </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -8556,16 +8580,8 @@
       </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>Direct - paid w/t assist</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>Search Engines - Google, Safari etc..</t>
-        </is>
-      </c>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr">
@@ -8580,7 +8596,7 @@
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>29-Aug</t>
+          <t>10-Oct-2024</t>
         </is>
       </c>
       <c r="T79" t="inlineStr"/>
@@ -8589,7 +8605,11 @@
           <t>1700</t>
         </is>
       </c>
-      <c r="V79" t="inlineStr"/>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr"/>
@@ -8617,12 +8637,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Wahiba-YB</t>
+          <t>Janiya Runaya (DS Ref)</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -8640,7 +8660,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
@@ -8659,7 +8679,7 @@
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -8669,13 +8689,13 @@
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>29-Aug</t>
+          <t>28-Sep</t>
         </is>
       </c>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V80" t="inlineStr"/>
@@ -8706,12 +8726,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Rumera Ash-REF</t>
+          <t>Sunita (DS Ref)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -8729,7 +8749,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K81" t="inlineStr"/>
@@ -8748,7 +8768,7 @@
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -8758,13 +8778,13 @@
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>12-Aug</t>
+          <t>1-Sep</t>
         </is>
       </c>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V81" t="inlineStr"/>
@@ -8795,12 +8815,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Wahiba daughter-YB (Ref DS)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -8821,16 +8841,8 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
           <t>Direct - paid w/t assist</t>
@@ -8855,7 +8867,7 @@
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>9-Jul-2024</t>
+          <t>29-Aug</t>
         </is>
       </c>
       <c r="T82" t="inlineStr"/>
@@ -8864,11 +8876,7 @@
           <t>1700</t>
         </is>
       </c>
-      <c r="V82" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
+      <c r="V82" t="inlineStr"/>
       <c r="W82" t="inlineStr"/>
       <c r="X82" t="inlineStr"/>
       <c r="Y82" t="inlineStr"/>
@@ -8896,17 +8904,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Wahiba-YB (Ref DS)</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -8922,16 +8930,8 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
           <t>Direct - paid w/t assist</t>
@@ -8956,7 +8956,7 @@
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>9-Jul-2024</t>
+          <t>29-Aug</t>
         </is>
       </c>
       <c r="T83" t="inlineStr"/>
@@ -8965,11 +8965,7 @@
           <t>1700</t>
         </is>
       </c>
-      <c r="V83" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
+      <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr"/>
       <c r="Y83" t="inlineStr"/>
@@ -8997,25 +8993,25 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Monica Milillo</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>monicamilillo02@gmail.com</t>
-        </is>
-      </c>
+          <t>Rumera Ash  (Ref DS)</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -9027,10 +9023,14 @@
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr"/>
+          <t>Direct - paid w/t assist</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr">
@@ -9045,7 +9045,7 @@
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>8-Sep-2024</t>
+          <t>12-Aug</t>
         </is>
       </c>
       <c r="T84" t="inlineStr"/>
@@ -9054,11 +9054,7 @@
           <t>2350</t>
         </is>
       </c>
-      <c r="V84" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+      <c r="V84" t="inlineStr"/>
       <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr"/>
       <c r="Y84" t="inlineStr"/>
@@ -9076,22 +9072,22 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>April 19, 2025</t>
+          <t>March 21, 2025</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>April 11, 2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Junita-aya Rowland YTP</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -9109,83 +9105,95 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Private</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S85" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>9-Jul-2024</t>
+        </is>
+      </c>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V85" t="inlineStr"/>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
       <c r="W85" t="inlineStr"/>
       <c r="X85" t="inlineStr"/>
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>April 19, 2025 to May 10, 2025</t>
+          <t>March 21, 2025 to April 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>April 19, 2025</t>
+          <t>March 21, 2025</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>April 11, 2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Sarah Cowperthwaite YTP</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -9198,88 +9206,96 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Private</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S86" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>9-Jul-2024</t>
+        </is>
+      </c>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V86" t="inlineStr"/>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
       <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr"/>
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>April 19, 2025 to May 10, 2025</t>
+          <t>March 21, 2025 to April 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>April 19, 2025</t>
+          <t>March 21, 2025</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>April 11, 2025</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Melisa gomez jattin</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
+          <t>Monica Milillo</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Mgomezjattin95@gmail.com</t>
+          <t>monicamilillo02@gmail.com</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -9291,46 +9307,38 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
-        </is>
-      </c>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>1699.43</t>
-        </is>
-      </c>
-      <c r="S87" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>8-Sep-2024</t>
+        </is>
+      </c>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr">
         <is>
-          <t>400.57</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
@@ -9338,25 +9346,17 @@
           <t>Xendit</t>
         </is>
       </c>
-      <c r="W87" t="inlineStr">
-        <is>
-          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
-        </is>
-      </c>
+      <c r="W87" t="inlineStr"/>
       <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr">
-        <is>
-          <t>Moved from 1 DEC - 21 DEC 2024</t>
-        </is>
-      </c>
+      <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>April 19, 2025 to May 10, 2025</t>
+          <t>March 21, 2025 to April 11, 2025</t>
         </is>
       </c>
     </row>
@@ -9373,12 +9373,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Ellie Walters</t>
+          <t>Junita-aya Rowland (Ref DS)</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -9386,28 +9386,24 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>elliewalters98@gmail.com</t>
-        </is>
-      </c>
+      <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -9423,41 +9419,25 @@
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S88" t="inlineStr">
-        <is>
-          <t>4-Sep-2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V88" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W88" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
       <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr">
-        <is>
-          <t>elliewalters98@gmail.com</t>
-        </is>
-      </c>
+      <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
           <t>4</t>
@@ -9482,12 +9462,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Julia Ben-YB</t>
+          <t>Sarah Cowperthwaite (CTBKNG - NCY)</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -9497,11 +9477,7 @@
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -9521,7 +9497,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>Direct - I was recommended to visit</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O89" t="inlineStr"/>
@@ -9532,23 +9508,19 @@
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S89" t="inlineStr">
-        <is>
-          <t>27-Aug</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V89" t="inlineStr"/>
@@ -9579,12 +9551,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Ylenia Votano</t>
+          <t>Melisa gomez jattin</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -9592,16 +9564,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Mgomezjattin95@gmail.com</t>
+        </is>
+      </c>
       <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -9610,7 +9582,11 @@
         </is>
       </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M90" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -9618,7 +9594,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O90" t="inlineStr"/>
@@ -9634,24 +9610,32 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S90" t="inlineStr">
-        <is>
-          <t>15-Sep</t>
-        </is>
-      </c>
+          <t>1699.43</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V90" t="inlineStr"/>
-      <c r="W90" t="inlineStr"/>
+          <t>400.57</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+        </is>
+      </c>
       <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr">
+        <is>
+          <t>Moved from 1 DEC - 21 DEC 2024</t>
+        </is>
+      </c>
       <c r="Z90" t="inlineStr">
         <is>
           <t>4</t>
@@ -9676,12 +9660,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Mosana Wahibi Rekhi-YB</t>
+          <t>Ellie Walters</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -9689,33 +9673,33 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>elliewalters98@gmail.com</t>
+        </is>
+      </c>
       <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>UAE</t>
-        </is>
-      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O91" t="inlineStr"/>
@@ -9726,7 +9710,7 @@
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
@@ -9736,19 +9720,31 @@
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>27-Aug</t>
+          <t>4-Sep-2024</t>
         </is>
       </c>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr">
         <is>
-          <t>2350</t>
-        </is>
-      </c>
-      <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr"/>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr">
+        <is>
+          <t>elliewalters98@gmail.com</t>
+        </is>
+      </c>
       <c r="Z91" t="inlineStr">
         <is>
           <t>4</t>
@@ -9773,12 +9769,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Samantha Foster</t>
+          <t>Julia Ben-YB</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -9786,20 +9782,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>samanthaannefoster@outlook.com</t>
-        </is>
-      </c>
+      <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -9816,7 +9808,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Instagram </t>
+          <t>Direct - I was recommended to visit</t>
         </is>
       </c>
       <c r="O92" t="inlineStr"/>
@@ -9832,32 +9824,24 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>18-Aug-2024</t>
+          <t>27-Aug</t>
         </is>
       </c>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V92" t="inlineStr"/>
-      <c r="W92" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="W92" t="inlineStr"/>
       <c r="X92" t="inlineStr"/>
-      <c r="Y92" t="inlineStr">
-        <is>
-          <t>samanthaannefoster@outlook.com//hold until 18.08</t>
-        </is>
-      </c>
+      <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
           <t>4</t>
@@ -9882,12 +9866,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Mehrnoosh Nazari</t>
+          <t>Ylenia Votano</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -9895,16 +9879,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>miavisualdesign@gmail.com</t>
-        </is>
-      </c>
+      <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -9919,7 +9903,11 @@
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
@@ -9933,28 +9921,24 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S93" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>15-Sep</t>
+        </is>
+      </c>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V93" t="inlineStr"/>
       <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr">
-        <is>
-          <t>Vegan/Dairy free</t>
-        </is>
-      </c>
-      <c r="Y93" t="inlineStr">
-        <is>
-          <t>allergic to  walnuts, eggplants, and raw tomatoes // Hold until 5.11</t>
-        </is>
-      </c>
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
           <t>4</t>
@@ -9969,55 +9953,51 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>July 07, 2025</t>
+          <t>April 19, 2025</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>July 28, 2025</t>
+          <t>May 10, 2025</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Madita Mayr</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>madita.mayr@gmail.com</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>+43 (664) 735-88783</t>
-        </is>
-      </c>
+          <t>Mosana Wahibi Rekhi-YB</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -10026,10 +10006,14 @@
         </is>
       </c>
       <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
@@ -10039,47 +10023,39 @@
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>11-Nov-2024</t>
+          <t>27-Aug</t>
         </is>
       </c>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V94" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W94" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
       <c r="X94" t="inlineStr"/>
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>July 07, 2025 to July 28, 2025</t>
+          <t>April 19, 2025 to May 10, 2025</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>August 05, 2025</t>
+          <t>April 19, 2025</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>August 26, 2025</t>
+          <t>May 10, 2025</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -10089,7 +10065,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Lydia May Ward</t>
+          <t>Samantha Foster</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -10097,16 +10073,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>samanthaannefoster@outlook.com</t>
+        </is>
+      </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -10115,11 +10095,7 @@
         </is>
       </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -10127,14 +10103,10 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Instagram </t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
           <t>No</t>
@@ -10147,54 +10119,62 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>11-Oct-2024</t>
+          <t>18-Aug-2024</t>
         </is>
       </c>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V95" t="inlineStr"/>
-      <c r="W95" t="inlineStr"/>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr">
+        <is>
+          <t>samanthaannefoster@outlook.com//hold until 18.08</t>
+        </is>
+      </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>August 05, 2025 to August 26, 2025</t>
+          <t>April 19, 2025 to May 10, 2025</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>September 28, 2025</t>
+          <t>April 19, 2025</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>October 19, 2025</t>
+          <t>May 10, 2025</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Bianka Maliku</t>
+          <t>Mehrnoosh Nazari</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -10204,14 +10184,10 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>bianka.maliku@gmail.com // GIACOMO95.BOIDO@GMAIL.COM</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>4525169119</t>
-        </is>
-      </c>
+          <t>miavisualdesign@gmail.com</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
@@ -10220,25 +10196,17 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
-        </is>
-      </c>
+      <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
@@ -10247,57 +10215,53 @@
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr">
         <is>
-          <t>2350</t>
-        </is>
-      </c>
-      <c r="V96" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W96" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="X96" t="inlineStr"/>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>Vegan/Dairy free</t>
+        </is>
+      </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>Moved from May 2025 BALI</t>
+          <t>allergic to  walnuts, eggplants, and raw tomatoes // Hold until 5.11</t>
         </is>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>September 28, 2025 to October 19, 2025</t>
+          <t>April 19, 2025 to May 10, 2025</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>November 21, 2025</t>
+          <t>July 07, 2025</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>December 12, 2025</t>
+          <t>July 28, 2025</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -10307,24 +10271,28 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Jaina Patel</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
+          <t>Madita Mayr</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>madita.mayr@gmail.com</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>+43 (664) 735-88783</t>
+        </is>
+      </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -10333,14 +10301,10 @@
         </is>
       </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -10348,19 +10312,11 @@
           <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>1890</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
@@ -10370,49 +10326,57 @@
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>10-Jul</t>
+          <t>11-Nov-2024</t>
         </is>
       </c>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr">
         <is>
-          <t>1490</t>
-        </is>
-      </c>
-      <c r="V97" t="inlineStr"/>
-      <c r="W97" t="inlineStr"/>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X97" t="inlineStr"/>
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
         <is>
-          <t>November 21, 2025 to December 12, 2025</t>
+          <t>July 07, 2025 to July 28, 2025</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>December 16, 2025</t>
+          <t>August 05, 2025</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>January 06, 2026</t>
+          <t>August 26, 2025</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Anatta Vela</t>
+          <t>Lydia May Ward</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -10421,15 +10385,15 @@
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>+19179388805</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -10448,9 +10412,21 @@
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N98" t="inlineStr"/>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q98" t="inlineStr">
         <is>
           <t>2750</t>
@@ -10463,7 +10439,7 @@
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>28-May-2024</t>
+          <t>11-Oct-2024</t>
         </is>
       </c>
       <c r="T98" t="inlineStr"/>
@@ -10472,42 +10448,30 @@
           <t>2350</t>
         </is>
       </c>
-      <c r="V98" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W98" t="inlineStr">
-        <is>
-          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
-        </is>
-      </c>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
       <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr">
-        <is>
-          <t>anatta.vela@gmail.com moved from Dec 23rd 2024</t>
-        </is>
-      </c>
+      <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>December 16, 2025 to January 06, 2026</t>
+          <t>August 05, 2025 to August 26, 2025</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>December 16, 2025</t>
+          <t>September 28, 2025</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>January 06, 2026</t>
+          <t>October 19, 2025</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -10517,7 +10481,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Helena von Keller</t>
+          <t>Bianka Maliku</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -10525,10 +10489,14 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>bianka.maliku@gmail.com // GIACOMO95.BOIDO@GMAIL.COM</t>
+        </is>
+      </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>+491728129488</t>
+          <t>4525169119</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
@@ -10539,7 +10507,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K99" t="inlineStr"/>
@@ -10553,31 +10521,39 @@
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
       <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>12 July 2024</t>
-        </is>
-      </c>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V99" t="inlineStr"/>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
       <c r="W99" t="inlineStr">
         <is>
           <t>Other</t>
@@ -10586,56 +10562,56 @@
       <c r="X99" t="inlineStr"/>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>helena@vonkeller.org. Moved from 3 Sep 2024 - 23 Sep 2024. Management agreed to reschedule without additional charge. (amoCRM)</t>
+          <t>Moved from May 2025 BALI</t>
         </is>
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
         <is>
-          <t>December 16, 2025 to January 06, 2026</t>
+          <t>September 28, 2025 to October 19, 2025</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>December 16, 2025</t>
+          <t>November 21, 2025</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>January 06, 2026</t>
+          <t>December 12, 2025</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Paul Vigil</t>
+          <t>Jaina Patel</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>paul33vigil@gmail.com</t>
-        </is>
-      </c>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -10654,12 +10630,24 @@
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N100" t="inlineStr"/>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>1890</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
@@ -10669,37 +10657,336 @@
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>01-May-2024</t>
+          <t>10-Jul</t>
         </is>
       </c>
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr">
         <is>
+          <t>1490</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AA100" t="inlineStr">
+        <is>
+          <t>November 21, 2025 to December 12, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>December 16, 2025</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>January 06, 2026</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Anatta Vela</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>+19179388805</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>28-May-2024</t>
+        </is>
+      </c>
+      <c r="T101" t="inlineStr"/>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+        </is>
+      </c>
+      <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr">
+        <is>
+          <t>anatta.vela@gmail.com moved from Dec 23rd 2024</t>
+        </is>
+      </c>
+      <c r="Z101" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AA101" t="inlineStr">
+        <is>
+          <t>December 16, 2025 to January 06, 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>December 16, 2025</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>January 06, 2026</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Helena von Keller</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>+491728129488</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr">
+        <is>
           <t>1700</t>
         </is>
       </c>
-      <c r="V100" t="inlineStr">
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>12 July 2024</t>
+        </is>
+      </c>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="X102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr">
+        <is>
+          <t>helena@vonkeller.org. Moved from 3 Sep 2024 - 23 Sep 2024. Management agreed to reschedule without additional charge. (amoCRM)</t>
+        </is>
+      </c>
+      <c r="Z102" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AA102" t="inlineStr">
+        <is>
+          <t>December 16, 2025 to January 06, 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>December 16, 2025</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>January 06, 2026</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Paul Vigil</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>paul33vigil@gmail.com</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>01-May-2024</t>
+        </is>
+      </c>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
         <is>
           <t>PayPal</t>
         </is>
       </c>
-      <c r="W100" t="inlineStr">
+      <c r="W103" t="inlineStr">
         <is>
           <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
         </is>
       </c>
-      <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr">
+      <c r="X103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr">
         <is>
           <t>Moved from Dec 1st 2024 - doesn't mind sharing room with female</t>
         </is>
       </c>
-      <c r="Z100" t="inlineStr">
+      <c r="Z103" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AA100" t="inlineStr">
+      <c r="AA103" t="inlineStr">
         <is>
           <t>December 16, 2025 to January 06, 2026</t>
         </is>

--- a/data/ryp_student_database_200hr.xlsx
+++ b/data/ryp_student_database_200hr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA117"/>
+  <dimension ref="A1:AA118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1641,12 +1641,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Maryam Kargar</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1656,15 +1656,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>maryamkargar23@gmail.com</t>
+          <t>hillchelsea1@gmail.com</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -1683,7 +1679,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1709,7 +1705,7 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>06-Nov-2024</t>
+          <t>18-Nov-2024</t>
         </is>
       </c>
       <c r="T12" t="inlineStr"/>
@@ -1720,7 +1716,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>Doku</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -1754,12 +1750,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Daniela Ibanez (Dani)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1767,21 +1763,21 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>hillchelsea1@gmail.com</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>+56956090403</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1792,7 +1788,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1808,35 +1804,23 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>18-Nov-2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
@@ -2832,34 +2816,38 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Daniela Ibanez (Dani)</t>
+          <t>Robbert-Paul Boertje</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>rpboertje@gmail.com</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>+56956090403</t>
+          <t>31610453167</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -2886,22 +2874,30 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>2-Dec-2024</t>
+        </is>
+      </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr"/>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
@@ -2929,12 +2925,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Patricia Vang Nielsen</t>
+          <t>Maryam Kargar</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2944,13 +2940,13 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Patriciavn884@gmail.com</t>
+          <t>maryamkargar23@gmail.com</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2997,7 +2993,7 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>31-Oct-2024</t>
+          <t>06-Nov-2024</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
@@ -3008,7 +3004,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Xendit</t>
+          <t>Doku</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -3017,11 +3013,7 @@
         </is>
       </c>
       <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>she has a small injury in my right shoulder from an old yoga retreat</t>
-        </is>
-      </c>
+      <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
           <t>1</t>
@@ -3046,12 +3038,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DS group 2 (NZ)</t>
+          <t>Patricia Vang Nielsen</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -3059,12 +3051,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Patriciavn884@gmail.com</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3106,7 +3106,7 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>10-Nov</t>
+          <t>31-Oct-2024</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
@@ -3115,10 +3115,22 @@
           <t>1700</t>
         </is>
       </c>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>she has a small injury in my right shoulder from an old yoga retreat</t>
+        </is>
+      </c>
       <c r="Z25" t="inlineStr">
         <is>
           <t>1</t>
@@ -3143,12 +3155,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Sarah Lober</t>
+          <t>DS group 2 (NZ)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -3156,20 +3168,12 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>lober.sarah@gmx.de</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>+491715460531</t>
-        </is>
-      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -3185,10 +3189,14 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3207,7 +3215,7 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>28-Oct-2024</t>
+          <t>10-Nov</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
@@ -3216,11 +3224,7 @@
           <t>1700</t>
         </is>
       </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+      <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
@@ -3248,12 +3252,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Veronika Schaller</t>
+          <t>Sarah Lober</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -3263,10 +3267,14 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vroni.schaller@web.de</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
+          <t>lober.sarah@gmx.de</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>+491715460531</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
@@ -3286,18 +3294,14 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
-        </is>
-      </c>
+          <t>Direct - paid w/t assist</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -3312,7 +3316,7 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>22-Aug-2024</t>
+          <t>28-Oct-2024</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
@@ -3326,17 +3330,9 @@
           <t>Xendit</t>
         </is>
       </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>Vroni.schaller@web.de</t>
-        </is>
-      </c>
+      <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
           <t>1</t>
@@ -3361,12 +3357,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Amalia Sepan</t>
+          <t>Veronika Schaller</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -3376,15 +3372,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t xml:space="preserve">amalia.sepan@icloud.com </t>
+          <t>Vroni.schaller@web.de</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -3395,11 +3387,7 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Partner // Sharing Room</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>No</t>
@@ -3418,7 +3406,7 @@
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -3428,7 +3416,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>382.25</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -3439,12 +3427,12 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>1717.75</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -3455,7 +3443,7 @@
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>Together // amalia.sepan@icloud.com // Capeman2110@gmail.com</t>
+          <t>Vroni.schaller@web.de</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -3482,22 +3470,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Jan Röttgen</t>
+          <t>Amalia Sepan</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Capeman2110@gmail.com</t>
+          <t xml:space="preserve">amalia.sepan@icloud.com </t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -3516,7 +3504,11 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Partner // Sharing Room</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>No</t>
@@ -3570,7 +3562,11 @@
         </is>
       </c>
       <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>Together // amalia.sepan@icloud.com // Capeman2110@gmail.com</t>
+        </is>
+      </c>
       <c r="Z29" t="inlineStr">
         <is>
           <t>1</t>
@@ -3595,32 +3591,28 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Caroline Kohl</t>
+          <t>Jan Röttgen</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>caroline_kohl@web.de</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>+49 171 691 2356</t>
-        </is>
-      </c>
+          <t>Capeman2110@gmail.com</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>caroline_kohl@web.de</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -3634,7 +3626,11 @@
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M30" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -3658,18 +3654,18 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>382.25</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>5-Sep-2024</t>
+          <t>22-Aug-2024</t>
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>1717.75</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -3683,11 +3679,7 @@
         </is>
       </c>
       <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr">
-        <is>
-          <t>caroline_kohl@web.de</t>
-        </is>
-      </c>
+      <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
           <t>1</t>
@@ -3712,12 +3704,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Maria Stadler</t>
+          <t>Caroline Kohl</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3725,12 +3717,24 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>caroline_kohl@web.de</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>+49 171 691 2356</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>caroline_kohl@web.de</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -3739,11 +3743,7 @@
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -3767,18 +3767,18 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>2099</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>28-Oct-2024</t>
+          <t>5-Sep-2024</t>
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>1</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -3792,7 +3792,11 @@
         </is>
       </c>
       <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>caroline_kohl@web.de</t>
+        </is>
+      </c>
       <c r="Z31" t="inlineStr">
         <is>
           <t>1</t>
@@ -3817,12 +3821,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Maddison Ball</t>
+          <t>Maria Stadler</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3831,16 +3835,8 @@
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>+44 7958 032112</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -3864,7 +3860,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -3885,7 +3881,7 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>10-Aug-2024</t>
+          <t>28-Oct-2024</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
@@ -3896,10 +3892,14 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Bank transfer</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr"/>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
@@ -3926,38 +3926,38 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Pien Bergshoeff</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>pienbergshoeff@gmail.com</t>
-        </is>
-      </c>
+          <t>Maddison Ball</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>+31621237804</t>
+          <t>+44 7958 032112</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Netherland</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -3968,12 +3968,12 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -3984,41 +3984,33 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>1262.38</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>26-Sep-2024</t>
+          <t>10-Aug-2024</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>1487.62</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Bank transfer</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Will join the short retreat, first retreat will be scheduled from the 23rd of January - 26th of January and the second retreat will be from the 16th of February - 19th of February 2025. </t>
-        </is>
-      </c>
+      <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
           <t>1</t>
@@ -4043,32 +4035,28 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Amy Sobocinski</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
+          <t>Pien Bergshoeff</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Amymsobocinski@gmail.com</t>
+          <t>pienbergshoeff@gmail.com</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>+14102994767</t>
+          <t>+31621237804</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Netherland</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -4089,7 +4077,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -4110,27 +4098,23 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>1262.38</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>01-Oct-2024</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
-      </c>
+          <t>26-Sep-2024</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1487.62</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Stripe</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
@@ -4141,7 +4125,7 @@
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Check-in on January 25th 2025. One extra night </t>
+          <t xml:space="preserve">Will join the short retreat, first retreat will be scheduled from the 23rd of January - 26th of January and the second retreat will be from the 16th of February - 19th of February 2025. </t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -4168,12 +4152,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Brooke O'Connor</t>
+          <t>Amy Sobocinski</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -4183,11 +4167,19 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>bgoc2013@icloud.com</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
+          <t>Amymsobocinski@gmail.com</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>+14102994767</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -4195,7 +4187,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -4222,7 +4214,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -4232,18 +4224,22 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>17-Oct-2024</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr"/>
+          <t>01-Oct-2024</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Bank transfer</t>
+          <t>Stripe</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
@@ -4252,7 +4248,11 @@
         </is>
       </c>
       <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Check-in on January 25th 2025. One extra night </t>
+        </is>
+      </c>
       <c r="Z35" t="inlineStr">
         <is>
           <t>1</t>
@@ -4277,12 +4277,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Chloe Holden</t>
+          <t>Brooke O'Connor</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -4292,14 +4292,10 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>chloeholden1402@gmail.com</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>+61487440313</t>
-        </is>
-      </c>
+          <t>bgoc2013@icloud.com</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
@@ -4319,7 +4315,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -4340,23 +4336,23 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>13-Oct-2024</t>
+          <t>17-Oct-2024</t>
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Xendit</t>
+          <t>Bank transfer</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
@@ -4364,11 +4360,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="X36" t="inlineStr">
-        <is>
-          <t>Gluten Free</t>
-        </is>
-      </c>
+      <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
@@ -4394,12 +4386,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Samantha (with dghtr)</t>
+          <t>Chloe Holden</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -4407,17 +4399,25 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>chloeholden1402@gmail.com</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>+61487440313</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -4428,7 +4428,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -4444,32 +4444,40 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>12-Oct-2024</t>
+          <t>13-Oct-2024</t>
         </is>
       </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>2350</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
       <c r="W37" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="X37" t="inlineStr"/>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Gluten Free</t>
+        </is>
+      </c>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
@@ -4495,17 +4503,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Adrian Sotelo</t>
+          <t>Samantha (with dghtr)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -4518,13 +4526,13 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -4534,7 +4542,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -4545,7 +4553,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>4200</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -4555,20 +4563,16 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>22-Sep-2024</t>
+          <t>12-Oct-2024</t>
         </is>
       </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>3800</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr">
         <is>
           <t>No</t>
@@ -4600,17 +4604,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Samin Yoga Gp 1</t>
+          <t>Adrian Sotelo</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -4629,7 +4633,7 @@
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -4639,7 +4643,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -4650,7 +4654,7 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -4660,17 +4664,25 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>13-Oct-2024</t>
+          <t>22-Sep-2024</t>
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
+          <t>3800</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
@@ -4697,12 +4709,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Samin Yoga Gp 2</t>
+          <t>Samin Yoga Gp 1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -4794,12 +4806,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Samin Yoga Gp 4</t>
+          <t>Samin Yoga Gp 2</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -4817,7 +4829,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -4844,7 +4856,7 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -4860,7 +4872,7 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V41" t="inlineStr"/>
@@ -4891,17 +4903,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Efstratios Marougkas (Stratos) </t>
+          <t>Samin Yoga Gp 4</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -4988,37 +5000,25 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Katrina Di</t>
+          <t xml:space="preserve">Efstratios Marougkas (Stratos) </t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Katrinadin@gmail.com</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>+15202484721</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -5055,32 +5055,24 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>2746.24</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>14-Oct-2024</t>
+          <t>13-Oct-2024</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr">
-        <is>
-          <t>additional night on the 16th of February</t>
-        </is>
-      </c>
+      <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
           <t>1</t>
@@ -5105,12 +5097,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Vyla Carter</t>
+          <t>Katrina Di</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -5118,17 +5110,29 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Katrinadin@gmail.com</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>+15202484721</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -5155,12 +5159,12 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>2746.24</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -5171,15 +5175,19 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>Additional 2 days stay - 24/25 Jan @ $90 per day. Will pay with the balance</t>
+          <t>additional night on the 16th of February</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
@@ -5206,12 +5214,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Dani Bass</t>
+          <t>Vyla Carter</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -5219,25 +5227,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Dani.bass@btinternet.com</t>
-        </is>
-      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -5264,31 +5264,31 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>14-Oct-2024</t>
+        </is>
+      </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>bank transfer made</t>
+          <t>Additional 2 days stay - 24/25 Jan @ $90 per day. Will pay with the balance</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
@@ -5315,12 +5315,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Julie Hollard</t>
+          <t>Dani Bass</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -5330,11 +5330,15 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>hollardjulie@gmail.com</t>
+          <t>Dani.bass@btinternet.com</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="I46" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -5348,7 +5352,7 @@
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -5374,28 +5378,32 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2733</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>26-Oct-2024</t>
+          <t>2-Dec-2024</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>2747.25</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>Stripe</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr"/>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>bank transfer made</t>
+        </is>
+      </c>
       <c r="Z46" t="inlineStr">
         <is>
           <t>1</t>
@@ -5420,12 +5428,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Alina Iuga</t>
+          <t>Julie Hollard</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -5435,7 +5443,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>alinaiuga2@gmail.com</t>
+          <t>hollardjulie@gmail.com</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -5453,7 +5461,7 @@
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -5463,7 +5471,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Direct (ex student)</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -5479,24 +5487,28 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>2750</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr"/>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>26-Oct-2024</t>
+        </is>
+      </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr"/>
+          <t>2747.25</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Stripe</t>
+        </is>
+      </c>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr">
-        <is>
-          <t>Originally booked in 2023</t>
-        </is>
-      </c>
+      <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
           <t>1</t>
@@ -5521,12 +5533,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Vandana Balsaria</t>
+          <t>Alina Iuga</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -5534,17 +5546,21 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>alinaiuga2@gmail.com</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -5560,34 +5576,30 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Direct (ex student)</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>1890</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>13-Oct-2024</t>
-        </is>
-      </c>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>1490</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V48" t="inlineStr"/>
@@ -5595,7 +5607,7 @@
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>Moved from23-Dec batch</t>
+          <t>Originally booked in 2023</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
@@ -5612,22 +5624,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>February 24, 2025</t>
+          <t>January 26, 2025</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>March 17, 2025</t>
+          <t>February 16, 2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Laura</t>
+          <t>Vandana Balsaria</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -5635,16 +5647,12 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>laurawilstrup@gmail.com</t>
-        </is>
-      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -5653,26 +5661,30 @@
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>1890</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -5682,35 +5694,31 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>3-November-2024</t>
+          <t>13-Oct-2024</t>
         </is>
       </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+          <t>1490</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>Friends sharing the same room</t>
+          <t>Moved from23-Dec batch</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>February 24, 2025 to March 17, 2025</t>
+          <t>January 26, 2025 to February 16, 2025</t>
         </is>
       </c>
     </row>
@@ -5727,12 +5735,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Aya Reimann</t>
+          <t>Laura</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -5742,7 +5750,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>ayareimann@gmail.com</t>
+          <t>laurawilstrup@gmail.com</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -5787,7 +5795,7 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>6-November-2024</t>
+          <t>3-November-2024</t>
         </is>
       </c>
       <c r="T50" t="inlineStr"/>
@@ -5798,12 +5806,16 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>Friends sharing the same room</t>
+        </is>
+      </c>
       <c r="Z50" t="inlineStr">
         <is>
           <t>2</t>
@@ -5828,12 +5840,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Maud CAMBON</t>
+          <t>Aya Reimann</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -5843,15 +5855,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>maud.34.cambon@gmail.com</t>
+          <t>ayareimann@gmail.com</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -5859,23 +5867,19 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -5886,12 +5890,12 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>382.1</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -5902,7 +5906,7 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>2367.9</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
@@ -5937,12 +5941,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Pauline Andre</t>
+          <t>Maud CAMBON</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -5952,15 +5956,19 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>pauline.andre17490@gmail.com</t>
+          <t>maud.34.cambon@gmail.com</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>+971 523243816</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr"/>
+          <t>+33767085880</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
       <c r="I52" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -5968,7 +5976,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -5995,37 +6003,33 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>382.1</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>9 November 2024</t>
+          <t>6-November-2024</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2367.9</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Xendit</t>
+          <t>PayPal</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr">
-        <is>
-          <t>I broke a rib at the end of September 2024, but it is currently healing and should be perfectly healed for the yoga program in February 2024.</t>
-        </is>
-      </c>
+      <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
           <t>2</t>
@@ -6050,12 +6054,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Diane</t>
+          <t>Pauline Andre</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -6065,12 +6069,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>daunasdiane@gmail.com</t>
+          <t>pauline.andre17490@gmail.com</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>+971 557104954</t>
+          <t>+971 523243816</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -6085,7 +6089,11 @@
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M53" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -6114,7 +6122,7 @@
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>11 November 2024</t>
+          <t>9 November 2024</t>
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
@@ -6132,7 +6140,7 @@
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>I have an old tendinitis in my left shoulder, though it hasn’t caused any issues for a few years now. Additionally, I manage a hormonal imbalance that requires me to rest adequately, but I am prepared for the retreat’s intensive schedule.</t>
+          <t>I broke a rib at the end of September 2024, but it is currently healing and should be perfectly healed for the yoga program in February 2024.</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
@@ -6159,12 +6167,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Christina Demissi</t>
+          <t>Diane</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -6174,10 +6182,14 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>christina.demissi@gmail.com</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
+          <t>daunasdiane@gmail.com</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>+971 557104954</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
@@ -6186,15 +6198,11 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -6213,7 +6221,7 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -6223,13 +6231,13 @@
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>9 November 2024</t>
+          <t>11 November 2024</t>
         </is>
       </c>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
@@ -6237,13 +6245,13 @@
           <t>Xendit</t>
         </is>
       </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>I have an old tendinitis in my left shoulder, though it hasn’t caused any issues for a few years now. Additionally, I manage a hormonal imbalance that requires me to rest adequately, but I am prepared for the retreat’s intensive schedule.</t>
+        </is>
+      </c>
       <c r="Z54" t="inlineStr">
         <is>
           <t>2</t>
@@ -6268,53 +6276,89 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Monika &amp; Her Husband</t>
+          <t>Christina Demissi</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>monika.gruenenberg@web.de</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Monika will join the 200HR YTT and her husband will join Yoga &amp; Ayurveda Retreat as well if any spot available on this date</t>
-        </is>
-      </c>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>christina.demissi@gmail.com</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
       <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>9 November 2024</t>
+        </is>
+      </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
@@ -6341,65 +6385,49 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Dragana Vukanovska</t>
+          <t>Monika &amp; Her Husband</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>monika.gruenenberg@web.de</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Monika will join the 200HR YTT and her husband will join Yoga &amp; Ayurveda Retreat as well if any spot available on this date</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>RYP</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Twin share</t>
-        </is>
-      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
-        </is>
-      </c>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V56" t="inlineStr"/>
@@ -6430,12 +6458,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Helena Quist</t>
+          <t>Dragana Vukanovska</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -6519,12 +6547,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Annick Boucher</t>
+          <t>Helena Quist</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -6532,11 +6560,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Annickb.osteo@gmail.com</t>
-        </is>
-      </c>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
@@ -6612,49 +6636,69 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Eliaan Blijdenstein</t>
+          <t>Annick Boucher</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>e.e.blijdenstein@gmail.com</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Prefer private room</t>
-        </is>
-      </c>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Annickb.osteo@gmail.com</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>RYP</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
       <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V59" t="inlineStr"/>
@@ -6685,84 +6729,52 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Freya Pye</t>
+          <t>Eliaan Blijdenstein</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>freya.pye8@gmail.com</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr"/>
+          <t>e.e.blijdenstein@gmail.com</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Prefer private room</t>
+        </is>
+      </c>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>HOM</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Twin share</t>
-        </is>
-      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>2100</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>1 November 2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+      <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
@@ -6790,12 +6802,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Freya Pye</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -6803,12 +6815,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>freya.pye8@gmail.com</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -6817,7 +6833,11 @@
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M61" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -6841,17 +6861,25 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr"/>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>1 November 2024</t>
+        </is>
+      </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V61" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
@@ -6879,33 +6907,25 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Gabriel Campaner Bascuñana</t>
+          <t>Thais</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>GabrielCampanerCoach@gmail.com // gcampaner_91@hotmail.com</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>3460387145</t>
-        </is>
-      </c>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -6914,11 +6934,7 @@
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -6945,22 +6961,14 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>2 November 2024</t>
-        </is>
-      </c>
+      <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
           <t>1700</t>
         </is>
       </c>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+      <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
@@ -6988,12 +6996,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Jonathan Saldarriaga</t>
+          <t>Gabriel Campaner Bascuñana</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -7003,12 +7011,12 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Jonathan0391@hotmail.com</t>
+          <t>GabrielCampanerCoach@gmail.com // gcampaner_91@hotmail.com</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>+4917664828174</t>
+          <t>3460387145</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -7022,11 +7030,7 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>No</t>
@@ -7060,7 +7064,7 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>28 September 2024</t>
+          <t>2 November 2024</t>
         </is>
       </c>
       <c r="T63" t="inlineStr"/>
@@ -7074,11 +7078,7 @@
           <t>Xendit</t>
         </is>
       </c>
-      <c r="W63" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
@@ -7105,25 +7105,33 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kristhianne Cid de León </t>
+          <t>Jonathan Saldarriaga</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Jonathan0391@hotmail.com</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>+4917664828174</t>
+        </is>
+      </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -7131,7 +7139,11 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>No</t>
@@ -7144,7 +7156,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -7165,7 +7177,7 @@
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>10-Jul-2024</t>
+          <t>28 September 2024</t>
         </is>
       </c>
       <c r="T64" t="inlineStr"/>
@@ -7174,18 +7186,18 @@
           <t>1700</t>
         </is>
       </c>
-      <c r="V64" t="inlineStr"/>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+          <t>No</t>
         </is>
       </c>
       <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr">
-        <is>
-          <t>Booked in Jul 2024 at previous fee. Due to injury changing to Feb 2024 with the new fee</t>
-        </is>
-      </c>
+      <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
           <t>2</t>
@@ -7210,12 +7222,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Ulrike Maier</t>
+          <t xml:space="preserve">Kristhianne Cid de León </t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -7223,16 +7235,12 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>maier.ulrike64@gmx.de</t>
-        </is>
-      </c>
+      <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -7253,7 +7261,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Instagram </t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -7269,30 +7277,30 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>399.31</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>21-Aug-2024</t>
+          <t>10-Jul-2024</t>
         </is>
       </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>1700.69</t>
-        </is>
-      </c>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W65" t="inlineStr"/>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+        </is>
+      </c>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>maier.ulrike64@gmx.de</t>
+          <t>Booked in Jul 2024 at previous fee. Due to injury changing to Feb 2024 with the new fee</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
@@ -7319,12 +7327,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Anna Stubbs</t>
+          <t>Ulrike Maier</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -7332,21 +7340,21 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>maier.ulrike64@gmx.de</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
@@ -7362,7 +7370,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t xml:space="preserve">Instagram </t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -7373,23 +7381,23 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>399.31</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>19-Aug-2024</t>
+          <t>21-Aug-2024</t>
         </is>
       </c>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700.69</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
@@ -7399,7 +7407,11 @@
       </c>
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>maier.ulrike64@gmx.de</t>
+        </is>
+      </c>
       <c r="Z66" t="inlineStr">
         <is>
           <t>2</t>
@@ -7424,12 +7436,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Nicole Dubinin</t>
+          <t>Anna Stubbs</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -7437,21 +7449,21 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Nicoledubinin9@gmail.com</t>
-        </is>
-      </c>
+      <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
@@ -7467,7 +7479,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -7478,7 +7490,7 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -7488,27 +7500,23 @@
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>16 October 2024</t>
+          <t>19-Aug-2024</t>
         </is>
       </c>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>Xendit</t>
+          <t>PayPal</t>
         </is>
       </c>
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr">
-        <is>
-          <t>Nicoledubinin9@gmail.com</t>
-        </is>
-      </c>
+      <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
           <t>2</t>
@@ -7533,12 +7541,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Daniel Hartley YTC</t>
+          <t>Nicole Dubinin</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -7546,21 +7554,21 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Nicoledubinin9@gmail.com</t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
@@ -7576,7 +7584,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -7587,7 +7595,7 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -7595,19 +7603,27 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S68" t="inlineStr"/>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>16 October 2024</t>
+        </is>
+      </c>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>2350</t>
-        </is>
-      </c>
-      <c r="V68" t="inlineStr"/>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>Coming with girlfirned who will be doing 300 hrs in 17-Feb batch -Natalia</t>
+          <t>Nicoledubinin9@gmail.com</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
@@ -7634,12 +7650,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Sarah Rayment Davies</t>
+          <t>Daniel Hartley YTC</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -7649,7 +7665,11 @@
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="I69" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -7657,7 +7677,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -7684,7 +7704,7 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -7696,17 +7716,17 @@
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>Coming with girlfirned who will be doing 300 hrs in 17-Feb batch -Natalia</t>
+        </is>
+      </c>
       <c r="Z69" t="inlineStr">
         <is>
           <t>2</t>
@@ -7731,12 +7751,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Mahariana</t>
+          <t>Sarah Rayment Davies</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -7754,7 +7774,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
@@ -7781,7 +7801,7 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -7793,7 +7813,7 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>1572</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
@@ -7803,11 +7823,7 @@
       </c>
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Already paid $400 to HOM but changed to Retreat and then further change to TTC in 2025 after multiple calls </t>
-        </is>
-      </c>
+      <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
           <t>2</t>
@@ -7832,12 +7848,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Maren Refert</t>
+          <t>Mahariana</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -7845,21 +7861,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>maren.refert@gmx.com</t>
-        </is>
-      </c>
+      <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
@@ -7870,12 +7882,12 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -7886,7 +7898,7 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -7894,27 +7906,23 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>21 Sep 2024</t>
-        </is>
-      </c>
+      <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>1572</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>Xendit</t>
+          <t>PayPal</t>
         </is>
       </c>
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>additional night on Feb 23rd</t>
+          <t xml:space="preserve">Already paid $400 to HOM but changed to Retreat and then further change to TTC in 2025 after multiple calls </t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
@@ -7941,29 +7949,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Asaf kehati</t>
+          <t>Maren Refert</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr"/>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>maren.refert@gmx.com</t>
+        </is>
+      </c>
       <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -7971,11 +7979,7 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>No</t>
@@ -7983,12 +7987,12 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -8009,7 +8013,7 @@
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>10-Sep</t>
+          <t>21 Sep 2024</t>
         </is>
       </c>
       <c r="T72" t="inlineStr"/>
@@ -8020,12 +8024,16 @@
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>additional night on Feb 23rd</t>
+        </is>
+      </c>
       <c r="Z72" t="inlineStr">
         <is>
           <t>2</t>
@@ -8050,17 +8058,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Jutta</t>
+          <t>Asaf kehati</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -8082,7 +8090,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -8116,7 +8124,11 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S73" t="inlineStr"/>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>10-Sep</t>
+        </is>
+      </c>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
@@ -8155,12 +8167,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Nathalia Ramirez</t>
+          <t>Jutta</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -8168,16 +8180,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>nathy924@hotmail.com</t>
-        </is>
-      </c>
+      <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -8187,7 +8199,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -8202,7 +8214,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
@@ -8221,11 +8233,7 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t>28 September 2024</t>
-        </is>
-      </c>
+      <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
@@ -8234,20 +8242,12 @@
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W74" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr">
-        <is>
-          <t>Husband &amp; Wife - sharing Private Room // Nat has mild pollen allergy, but taking medications and she will be fine</t>
-        </is>
-      </c>
+      <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
           <t>2</t>
@@ -8272,38 +8272,46 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Nathalia Ramirez</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>nathy924@hotmail.com</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Ben McDonald-Stuart</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>RYP</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Twin share</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M75" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -8311,7 +8319,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
@@ -8332,7 +8340,7 @@
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>20-Sep</t>
+          <t>28 September 2024</t>
         </is>
       </c>
       <c r="T75" t="inlineStr"/>
@@ -8343,7 +8351,7 @@
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W75" t="inlineStr">
@@ -8352,7 +8360,11 @@
         </is>
       </c>
       <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>Husband &amp; Wife - sharing Private Room // Nat has mild pollen allergy, but taking medications and she will be fine</t>
+        </is>
+      </c>
       <c r="Z75" t="inlineStr">
         <is>
           <t>2</t>
@@ -8377,29 +8389,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Jessica Eryeti Dy</t>
+          <t>Ben McDonald-Stuart</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>jessicaedy.work@gmail.com</t>
-        </is>
-      </c>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -8408,11 +8420,7 @@
         </is>
       </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -8420,7 +8428,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
@@ -8441,7 +8449,7 @@
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>7-Sep-2024</t>
+          <t>20-Sep</t>
         </is>
       </c>
       <c r="T76" t="inlineStr"/>
@@ -8452,16 +8460,16 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
-        </is>
-      </c>
-      <c r="W76" t="inlineStr"/>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> jessicaedy.wok@gmail.com</t>
-        </is>
-      </c>
+      <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr">
         <is>
           <t>2</t>
@@ -8486,12 +8494,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Carly Murphy</t>
+          <t>Jessica Eryeti Dy</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -8499,21 +8507,21 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>jessicaedy.work@gmail.com</t>
+        </is>
+      </c>
       <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K77" t="inlineStr"/>
@@ -8529,7 +8537,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
@@ -8540,7 +8548,7 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
@@ -8550,25 +8558,25 @@
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>10-Aug-2024</t>
+          <t>7-Sep-2024</t>
         </is>
       </c>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="W77" t="inlineStr"/>
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>Booking done in early Aug but updated the sheet late</t>
+          <t xml:space="preserve"> jessicaedy.wok@gmail.com</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr">
@@ -8585,22 +8593,22 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>March 21, 2025</t>
+          <t>February 24, 2025</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>April 11, 2025</t>
+          <t>March 17, 2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Monika Gruenenberg</t>
+          <t>Carly Murphy</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -8608,16 +8616,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>monika.gruenenberg@web.de</t>
-        </is>
-      </c>
+      <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -8626,7 +8634,11 @@
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M78" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -8634,44 +8646,56 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S78" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>10-Aug-2024</t>
+        </is>
+      </c>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr">
         <is>
-          <t>2100</t>
-        </is>
-      </c>
-      <c r="V78" t="inlineStr"/>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
       <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr"/>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>Hold Dec 2nd - sharing the room with her husband who registers for 21-Day retreat</t>
+          <t>Booking done in early Aug but updated the sheet late</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>March 21, 2025 to April 11, 2025</t>
+          <t>February 24, 2025 to March 17, 2025</t>
         </is>
       </c>
     </row>
@@ -8688,12 +8712,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Lin, Hsiang-Pu</t>
+          <t>Monika Gruenenberg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -8701,24 +8725,28 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>monika.gruenenberg@web.de</t>
+        </is>
+      </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -8735,24 +8763,24 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S79" t="inlineStr">
-        <is>
-          <t>20-Nov</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="V79" t="inlineStr"/>
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>Hold Dec 2nd - sharing the room with her husband who registers for 21-Day retreat</t>
+        </is>
+      </c>
       <c r="Z79" t="inlineStr">
         <is>
           <t>3</t>
@@ -8777,12 +8805,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Rino Yoshimoto</t>
+          <t>Lin, Hsiang-Pu</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -8790,21 +8818,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>vb.rino824@gmail.com</t>
-        </is>
-      </c>
+      <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
@@ -8823,35 +8847,27 @@
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>18-Nov-2024</t>
+          <t>20-Nov</t>
         </is>
       </c>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V80" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W80" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
@@ -8878,12 +8894,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Ratnaben Parekh  (Ref DS)</t>
+          <t>Rino Yoshimoto</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -8891,12 +8907,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>vb.rino824@gmail.com</t>
+        </is>
+      </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -8925,18 +8945,30 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S81" t="inlineStr"/>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>18-Nov-2024</t>
+        </is>
+      </c>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr">
         <is>
-          <t>2350</t>
-        </is>
-      </c>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr">
@@ -8963,12 +8995,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Sikka Ayama</t>
+          <t>Ratnaben Parekh  (Ref DS)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -8986,7 +9018,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K82" t="inlineStr"/>
@@ -9005,7 +9037,7 @@
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -9013,15 +9045,11 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>17 Nov 2024</t>
-        </is>
-      </c>
+      <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V82" t="inlineStr"/>
@@ -9052,12 +9080,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Dirukha Ayama</t>
+          <t>Sikka Ayama</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -9141,12 +9169,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Rukhsana Ayama</t>
+          <t>Dirukha Ayama</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -9164,7 +9192,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K84" t="inlineStr"/>
@@ -9183,7 +9211,7 @@
       <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -9199,7 +9227,7 @@
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V84" t="inlineStr"/>
@@ -9230,12 +9258,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Rubina Malik Ayama YTC</t>
+          <t>Rukhsana Ayama</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -9319,26 +9347,22 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Ashok (Ref DS)</t>
+          <t>Rubina Malik Ayama YTC</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -9375,7 +9399,7 @@
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>16 Nov 2024</t>
+          <t>17 Nov 2024</t>
         </is>
       </c>
       <c r="T86" t="inlineStr"/>
@@ -9412,25 +9436,29 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Bethany Bradbury</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>bethanymbradbury@gmail.com</t>
-        </is>
-      </c>
+          <t>Ashok (Ref DS)</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -9464,7 +9492,7 @@
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>28-Oct-2024</t>
+          <t>16 Nov 2024</t>
         </is>
       </c>
       <c r="T87" t="inlineStr"/>
@@ -9473,16 +9501,8 @@
           <t>2350</t>
         </is>
       </c>
-      <c r="V87" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W87" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
       <c r="X87" t="inlineStr"/>
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
@@ -9509,22 +9529,18 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Tamara Fenech</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
+          <t>Bethany Bradbury</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>tamara@cosiestudio.com</t>
+          <t>bethanymbradbury@gmail.com</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
@@ -9565,7 +9581,7 @@
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>15 Nov 2024</t>
+          <t>28-Oct-2024</t>
         </is>
       </c>
       <c r="T88" t="inlineStr"/>
@@ -9610,12 +9626,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Tanya Mistry</t>
+          <t>Tamara Fenech</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -9625,19 +9641,11 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Tanyamistry94@gmail.com // she cannot eat paneer // Moved from Jan</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>919820611611</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>tamara@cosiestudio.com</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -9652,7 +9660,7 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -9661,11 +9669,7 @@
         </is>
       </c>
       <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr">
         <is>
           <t>2750</t>
@@ -9678,7 +9682,7 @@
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>31-Aug-2024</t>
+          <t>15 Nov 2024</t>
         </is>
       </c>
       <c r="T89" t="inlineStr"/>
@@ -9689,7 +9693,7 @@
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>Stripe</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W89" t="inlineStr">
@@ -9697,11 +9701,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="X89" t="inlineStr">
-        <is>
-          <t>Vegan/Dairy free</t>
-        </is>
-      </c>
+      <c r="X89" t="inlineStr"/>
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
@@ -9727,22 +9727,34 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Gwen Deitz</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr"/>
+          <t>Tanya Mistry</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>gwendeitz3611@gmail.com</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
+          <t>Tanyamistry94@gmail.com // she cannot eat paneer // Moved from Jan</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>919820611611</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="I90" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -9750,18 +9762,30 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
       <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
@@ -9771,22 +9795,30 @@
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>10-Oct-2024</t>
+          <t>31-Aug-2024</t>
         </is>
       </c>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W90" t="inlineStr"/>
-      <c r="X90" t="inlineStr"/>
+          <t>Stripe</t>
+        </is>
+      </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>Vegan/Dairy free</t>
+        </is>
+      </c>
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
@@ -9812,49 +9844,41 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Gülsah Özbek</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr"/>
+          <t>Gwen Deitz</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>gwendeitz3611@gmail.com</t>
+        </is>
+      </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>Direct - paid w/t assist</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>Search Engines - Google, Safari etc..</t>
-        </is>
-      </c>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
@@ -9864,16 +9888,20 @@
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>28-Sep</t>
+          <t>10-Oct-2024</t>
         </is>
       </c>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr">
         <is>
-          <t>2350</t>
-        </is>
-      </c>
-      <c r="V91" t="inlineStr"/>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
       <c r="W91" t="inlineStr"/>
       <c r="X91" t="inlineStr"/>
       <c r="Y91" t="inlineStr"/>
@@ -9901,12 +9929,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Sunita (DS Ref)</t>
+          <t>Gülsah Özbek</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -9924,7 +9952,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K92" t="inlineStr"/>
@@ -9943,7 +9971,7 @@
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
@@ -9953,13 +9981,13 @@
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>1-Sep</t>
+          <t>28-Sep</t>
         </is>
       </c>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V92" t="inlineStr"/>
@@ -9990,12 +10018,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Wahiba daughter-YB (Ref DS)</t>
+          <t>Sunita (DS Ref)</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -10042,7 +10070,7 @@
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>29-Aug</t>
+          <t>1-Sep</t>
         </is>
       </c>
       <c r="T93" t="inlineStr"/>
@@ -10079,12 +10107,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Wahiba-YB (Ref DS)</t>
+          <t>Wahiba daughter-YB (Ref DS)</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -10168,12 +10196,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Rumera Ash  (Ref DS)</t>
+          <t>Wahiba-YB (Ref DS)</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -10191,7 +10219,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K95" t="inlineStr"/>
@@ -10210,7 +10238,7 @@
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
@@ -10220,13 +10248,13 @@
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>12-Aug</t>
+          <t>29-Aug</t>
         </is>
       </c>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V95" t="inlineStr"/>
@@ -10257,12 +10285,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Rumera Ash  (Ref DS)</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -10280,19 +10308,11 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Twin share</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
           <t>Direct - paid w/t assist</t>
@@ -10307,7 +10327,7 @@
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
@@ -10317,20 +10337,16 @@
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>9-Jul-2024</t>
+          <t>12-Aug</t>
         </is>
       </c>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V96" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr"/>
       <c r="W96" t="inlineStr"/>
       <c r="X96" t="inlineStr"/>
       <c r="Y96" t="inlineStr"/>
@@ -10358,17 +10374,17 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -10386,7 +10402,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -10459,45 +10475,57 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Monica Milillo</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>monicamilillo02@gmail.com</t>
-        </is>
-      </c>
+          <t>Richard</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Private</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr"/>
+          <t>Direct - paid w/t assist</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
@@ -10507,18 +10535,18 @@
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>8-Sep-2024</t>
+          <t>9-Jul-2024</t>
         </is>
       </c>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>Xendit</t>
+          <t>PayPal</t>
         </is>
       </c>
       <c r="W98" t="inlineStr"/>
@@ -10548,22 +10576,18 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Jéssica Schleiermacher</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
+          <t>Monica Milillo</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
-          <t>jessicasimiro@gmail.com</t>
+          <t>monicamilillo02@gmail.com</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
@@ -10582,20 +10606,12 @@
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
-        </is>
-      </c>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr">
         <is>
           <t>2750</t>
@@ -10608,7 +10624,7 @@
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>24-Oct-2024</t>
+          <t>8-Sep-2024</t>
         </is>
       </c>
       <c r="T99" t="inlineStr"/>
@@ -10622,11 +10638,7 @@
           <t>Xendit</t>
         </is>
       </c>
-      <c r="W99" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="W99" t="inlineStr"/>
       <c r="X99" t="inlineStr"/>
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
@@ -10643,22 +10655,22 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>April 19, 2025</t>
+          <t>March 21, 2025</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>April 11, 2025</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Subah Ghosh (Ref DS)</t>
+          <t>Jéssica Schleiermacher</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -10666,12 +10678,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>jessicasimiro@gmail.com</t>
+        </is>
+      </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -10694,38 +10710,50 @@
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>2475</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S100" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>24-Oct-2024</t>
+        </is>
+      </c>
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V100" t="inlineStr"/>
-      <c r="W100" t="inlineStr"/>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X100" t="inlineStr"/>
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
         <is>
-          <t>April 19, 2025 to May 10, 2025</t>
+          <t>March 21, 2025 to April 11, 2025</t>
         </is>
       </c>
     </row>
@@ -10742,12 +10770,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Junita-aya Rowland (Ref DS)</t>
+          <t>Subah Ghosh (Ref DS)</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -10783,12 +10811,12 @@
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2475</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
@@ -10831,12 +10859,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Sarah Cowperthwaite (CTBKNG - NCY)</t>
+          <t>Junita-aya Rowland (Ref DS)</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -10920,12 +10948,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Melisa gomez jattin</t>
+          <t>Sarah Cowperthwaite (CTBKNG - NCY)</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -10933,29 +10961,21 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Mgomezjattin95@gmail.com</t>
-        </is>
-      </c>
+      <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -10974,37 +10994,25 @@
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>1699.43</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S103" t="inlineStr"/>
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr">
         <is>
-          <t>400.57</t>
-        </is>
-      </c>
-      <c r="V103" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W103" t="inlineStr">
-        <is>
-          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
       <c r="X103" t="inlineStr"/>
-      <c r="Y103" t="inlineStr">
-        <is>
-          <t>Moved from 1 DEC - 21 DEC 2024</t>
-        </is>
-      </c>
+      <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
           <t>4</t>
@@ -11029,12 +11037,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Ellie Walters</t>
+          <t>Melisa gomez jattin</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -11044,7 +11052,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>elliewalters98@gmail.com</t>
+          <t>Mgomezjattin95@gmail.com</t>
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
@@ -11060,10 +11068,14 @@
         </is>
       </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -11084,18 +11096,14 @@
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>2100</t>
-        </is>
-      </c>
-      <c r="S104" t="inlineStr">
-        <is>
-          <t>29-Nov-2024</t>
-        </is>
-      </c>
+          <t>1699.43</t>
+        </is>
+      </c>
+      <c r="S104" t="inlineStr"/>
       <c r="T104" t="inlineStr"/>
       <c r="U104" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400.57</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
@@ -11105,13 +11113,13 @@
       </c>
       <c r="W104" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
         </is>
       </c>
       <c r="X104" t="inlineStr"/>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>elliewalters98@gmail.com</t>
+          <t>Moved from 1 DEC - 21 DEC 2024</t>
         </is>
       </c>
       <c r="Z104" t="inlineStr">
@@ -11138,12 +11146,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Ylenia Votano</t>
+          <t>Ellie Walters</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -11151,16 +11159,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>elliewalters98@gmail.com</t>
+        </is>
+      </c>
       <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -11172,12 +11180,12 @@
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O105" t="inlineStr"/>
@@ -11193,24 +11201,36 @@
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>15-Sep</t>
+          <t>29-Nov-2024</t>
         </is>
       </c>
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V105" t="inlineStr"/>
-      <c r="W105" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W105" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X105" t="inlineStr"/>
-      <c r="Y105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr">
+        <is>
+          <t>elliewalters98@gmail.com</t>
+        </is>
+      </c>
       <c r="Z105" t="inlineStr">
         <is>
           <t>4</t>
@@ -11235,12 +11255,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Mosana Wahibi Rekhi-YB</t>
+          <t>Ylenia Votano</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -11252,7 +11272,7 @@
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -11262,7 +11282,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K106" t="inlineStr"/>
@@ -11285,7 +11305,7 @@
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
@@ -11295,13 +11315,13 @@
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>27-Aug</t>
+          <t>15-Sep</t>
         </is>
       </c>
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V106" t="inlineStr"/>
@@ -11332,12 +11352,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Julia Ben-YB</t>
+          <t>Mosana Wahibi Rekhi-YB</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -11349,7 +11369,7 @@
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -11371,7 +11391,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>Direct - I was recommended to visit</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O107" t="inlineStr"/>
@@ -11429,12 +11449,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Samantha Foster</t>
+          <t>Julia Ben-YB</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -11442,20 +11462,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>samanthaannefoster@outlook.com</t>
-        </is>
-      </c>
+      <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -11472,7 +11488,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Instagram </t>
+          <t>Direct - I was recommended to visit</t>
         </is>
       </c>
       <c r="O108" t="inlineStr"/>
@@ -11488,32 +11504,24 @@
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>18-Aug-2024</t>
+          <t>27-Aug</t>
         </is>
       </c>
       <c r="T108" t="inlineStr"/>
       <c r="U108" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V108" t="inlineStr"/>
-      <c r="W108" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="W108" t="inlineStr"/>
       <c r="X108" t="inlineStr"/>
-      <c r="Y108" t="inlineStr">
-        <is>
-          <t>samanthaannefoster@outlook.com//hold until 18.08</t>
-        </is>
-      </c>
+      <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
           <t>4</t>
@@ -11538,12 +11546,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Mehrnoosh Nazari</t>
+          <t>Samantha Foster</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -11553,11 +11561,15 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>miavisualdesign@gmail.com</t>
+          <t>samanthaannefoster@outlook.com</t>
         </is>
       </c>
       <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
       <c r="I109" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -11565,7 +11577,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K109" t="inlineStr"/>
@@ -11575,7 +11587,11 @@
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Instagram </t>
+        </is>
+      </c>
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="inlineStr">
         <is>
@@ -11584,31 +11600,35 @@
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S109" t="inlineStr"/>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>18-Aug-2024</t>
+        </is>
+      </c>
       <c r="T109" t="inlineStr"/>
       <c r="U109" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V109" t="inlineStr"/>
-      <c r="W109" t="inlineStr"/>
-      <c r="X109" t="inlineStr">
-        <is>
-          <t>Vegan/Dairy free</t>
-        </is>
-      </c>
+      <c r="W109" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X109" t="inlineStr"/>
       <c r="Y109" t="inlineStr">
         <is>
-          <t>allergic to  walnuts, eggplants, and raw tomatoes // Hold until 5.11</t>
+          <t>samanthaannefoster@outlook.com//hold until 18.08</t>
         </is>
       </c>
       <c r="Z109" t="inlineStr">
@@ -11625,40 +11645,36 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>July 07, 2025</t>
+          <t>April 19, 2025</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>July 28, 2025</t>
+          <t>May 10, 2025</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Madita Mayr</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr"/>
+          <t>Mehrnoosh Nazari</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>madita.mayr@gmail.com</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>+43 (664) 735-88783</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
+          <t>miavisualdesign@gmail.com</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -11673,16 +11689,16 @@
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
-        </is>
-      </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>Search Engines - Google, Safari etc..</t>
-        </is>
-      </c>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q110" t="inlineStr">
         <is>
           <t>2100</t>
@@ -11690,52 +11706,48 @@
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S110" t="inlineStr">
-        <is>
-          <t>11-Nov-2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V110" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W110" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="X110" t="inlineStr"/>
-      <c r="Y110" t="inlineStr"/>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr"/>
+      <c r="W110" t="inlineStr"/>
+      <c r="X110" t="inlineStr">
+        <is>
+          <t>Vegan/Dairy free</t>
+        </is>
+      </c>
+      <c r="Y110" t="inlineStr">
+        <is>
+          <t>allergic to  walnuts, eggplants, and raw tomatoes // Hold until 5.11</t>
+        </is>
+      </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA110" t="inlineStr">
         <is>
-          <t>July 07, 2025 to July 28, 2025</t>
+          <t>April 19, 2025 to May 10, 2025</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>August 05, 2025</t>
+          <t>July 07, 2025</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>August 26, 2025</t>
+          <t>July 28, 2025</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -11745,40 +11757,40 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Lydia May Ward</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
+          <t>Madita Mayr</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>madita.mayr@gmail.com</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>+43 (664) 735-88783</t>
+        </is>
+      </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
@@ -11786,19 +11798,11 @@
           <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P111" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
@@ -11808,39 +11812,47 @@
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>11-Oct-2024</t>
+          <t>11-Nov-2024</t>
         </is>
       </c>
       <c r="T111" t="inlineStr"/>
       <c r="U111" t="inlineStr">
         <is>
-          <t>2350</t>
-        </is>
-      </c>
-      <c r="V111" t="inlineStr"/>
-      <c r="W111" t="inlineStr"/>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W111" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X111" t="inlineStr"/>
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AA111" t="inlineStr">
         <is>
-          <t>August 05, 2025 to August 26, 2025</t>
+          <t>July 07, 2025 to July 28, 2025</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>September 28, 2025</t>
+          <t>August 05, 2025</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>October 19, 2025</t>
+          <t>August 26, 2025</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -11850,7 +11862,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Bianka Maliku</t>
+          <t>Lydia May Ward</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -11858,20 +11870,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>bianka.maliku@gmail.com // GIACOMO95.BOIDO@GMAIL.COM</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>4525169119</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -11892,10 +11900,14 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
-        </is>
-      </c>
-      <c r="O112" t="inlineStr"/>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="P112" t="inlineStr">
         <is>
           <t>No</t>
@@ -11911,49 +11923,41 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S112" t="inlineStr"/>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>11-Oct-2024</t>
+        </is>
+      </c>
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="inlineStr">
         <is>
           <t>2350</t>
         </is>
       </c>
-      <c r="V112" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W112" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
+      <c r="V112" t="inlineStr"/>
+      <c r="W112" t="inlineStr"/>
       <c r="X112" t="inlineStr"/>
-      <c r="Y112" t="inlineStr">
-        <is>
-          <t>Moved from May 2025 BALI</t>
-        </is>
-      </c>
+      <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AA112" t="inlineStr">
         <is>
-          <t>September 28, 2025 to October 19, 2025</t>
+          <t>August 05, 2025 to August 26, 2025</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>November 21, 2025</t>
+          <t>September 28, 2025</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>December 12, 2025</t>
+          <t>October 19, 2025</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -11963,7 +11967,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Jaina Patel</t>
+          <t>Bianka Maliku</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -11971,21 +11975,25 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>bianka.maliku@gmail.com // GIACOMO95.BOIDO@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>4525169119</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K113" t="inlineStr"/>
@@ -12001,22 +12009,18 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
-        </is>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr"/>
       <c r="P113" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>1890</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
@@ -12024,68 +12028,76 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S113" t="inlineStr">
-        <is>
-          <t>10-Jul</t>
-        </is>
-      </c>
+      <c r="S113" t="inlineStr"/>
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="inlineStr">
         <is>
-          <t>1490</t>
-        </is>
-      </c>
-      <c r="V113" t="inlineStr"/>
-      <c r="W113" t="inlineStr"/>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W113" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
       <c r="X113" t="inlineStr"/>
-      <c r="Y113" t="inlineStr"/>
+      <c r="Y113" t="inlineStr">
+        <is>
+          <t>Moved from May 2025 BALI</t>
+        </is>
+      </c>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AA113" t="inlineStr">
         <is>
-          <t>November 21, 2025 to December 12, 2025</t>
+          <t>September 28, 2025 to October 19, 2025</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>December 16, 2025</t>
+          <t>November 21, 2025</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>January 06, 2026</t>
+          <t>December 12, 2025</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Paul Vigil</t>
+          <t>Jaina Patel</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>paul33vigil@gmail.com</t>
-        </is>
-      </c>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -12104,12 +12116,24 @@
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N114" t="inlineStr"/>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>1890</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
@@ -12119,39 +12143,27 @@
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>01-May-2024</t>
+          <t>10-Jul</t>
         </is>
       </c>
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V114" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W114" t="inlineStr">
-        <is>
-          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
-        </is>
-      </c>
+          <t>1490</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr"/>
+      <c r="W114" t="inlineStr"/>
       <c r="X114" t="inlineStr"/>
-      <c r="Y114" t="inlineStr">
-        <is>
-          <t>Moved from Dec 1st 2024 - doesn't mind sharing room with female</t>
-        </is>
-      </c>
+      <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AA114" t="inlineStr">
         <is>
-          <t>December 16, 2025 to January 06, 2026</t>
+          <t>November 21, 2025 to December 12, 2025</t>
         </is>
       </c>
     </row>
@@ -12168,25 +12180,25 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Helena von Keller</t>
+          <t>Paul Vigil</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>+491728129488</t>
-        </is>
-      </c>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>paul33vigil@gmail.com</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
@@ -12214,35 +12226,39 @@
       <c r="P115" t="inlineStr"/>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>12 July 2024</t>
+          <t>01-May-2024</t>
         </is>
       </c>
       <c r="T115" t="inlineStr"/>
       <c r="U115" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V115" t="inlineStr"/>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
       <c r="W115" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
         </is>
       </c>
       <c r="X115" t="inlineStr"/>
       <c r="Y115" t="inlineStr">
         <is>
-          <t>helena@vonkeller.org. Moved from 3 Sep 2024 - 23 Sep 2024. Management agreed to reschedule without additional charge. (amoCRM)</t>
+          <t>Moved from Dec 1st 2024 - doesn't mind sharing room with female</t>
         </is>
       </c>
       <c r="Z115" t="inlineStr">
@@ -12269,12 +12285,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Anatta Vela</t>
+          <t>Helena von Keller</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -12285,7 +12301,7 @@
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
-          <t>+19179388805</t>
+          <t>+491728129488</t>
         </is>
       </c>
       <c r="H116" t="inlineStr"/>
@@ -12296,7 +12312,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K116" t="inlineStr"/>
@@ -12315,39 +12331,35 @@
       <c r="P116" t="inlineStr"/>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>28-May-2024</t>
+          <t>12 July 2024</t>
         </is>
       </c>
       <c r="T116" t="inlineStr"/>
       <c r="U116" t="inlineStr">
         <is>
-          <t>2350</t>
-        </is>
-      </c>
-      <c r="V116" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr"/>
       <c r="W116" t="inlineStr">
         <is>
-          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="X116" t="inlineStr"/>
       <c r="Y116" t="inlineStr">
         <is>
-          <t>anatta.vela@gmail.com moved from Dec 23rd 2024</t>
+          <t>helena@vonkeller.org. Moved from 3 Sep 2024 - 23 Sep 2024. Management agreed to reschedule without additional charge. (amoCRM)</t>
         </is>
       </c>
       <c r="Z116" t="inlineStr">
@@ -12374,12 +12386,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Joanna Rugała</t>
+          <t>Anatta Vela</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -12387,12 +12399,12 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>jrugala@gmail.com</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>+19179388805</t>
+        </is>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
@@ -12401,7 +12413,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K117" t="inlineStr"/>
@@ -12415,16 +12427,12 @@
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N117" t="inlineStr">
-        <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
-        </is>
-      </c>
+      <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="inlineStr"/>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
@@ -12434,37 +12442,146 @@
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>15 Aug 2024</t>
+          <t>28-May-2024</t>
         </is>
       </c>
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W117" t="inlineStr">
         <is>
-          <t>Yes - 2nd Change (previous batch start in 6 months of this batch)</t>
+          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
         </is>
       </c>
       <c r="X117" t="inlineStr"/>
       <c r="Y117" t="inlineStr">
         <is>
+          <t>anatta.vela@gmail.com moved from Dec 23rd 2024</t>
+        </is>
+      </c>
+      <c r="Z117" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AA117" t="inlineStr">
+        <is>
+          <t>December 16, 2025 to January 06, 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>December 16, 2025</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>January 06, 2026</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Joanna Rugała</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>jrugala@gmail.com</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>15 Aug 2024</t>
+        </is>
+      </c>
+      <c r="T118" t="inlineStr"/>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>Bank Transfer</t>
+        </is>
+      </c>
+      <c r="W118" t="inlineStr">
+        <is>
+          <t>Yes - 2nd Change (previous batch start in 6 months of this batch)</t>
+        </is>
+      </c>
+      <c r="X118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr">
+        <is>
           <t>Moved from Dec 23 2024</t>
         </is>
       </c>
-      <c r="Z117" t="inlineStr">
+      <c r="Z118" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AA117" t="inlineStr">
+      <c r="AA118" t="inlineStr">
         <is>
           <t>December 16, 2025 to January 06, 2026</t>
         </is>
